--- a/prac_3_2/graphs.xlsx
+++ b/prac_3_2/graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4120F/FRSKIA001_CLRCAM007_ES3/prac_3_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62ce1d03d1827cd4/Desktop/FRSKIA001_CLRCAM007_ES3/FRSKIA001_CLRCAM007_ES3/prac_3_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0450FC45-E972-CD47-9B1E-DA4FBC376D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{0450FC45-E972-CD47-9B1E-DA4FBC376D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE33D9C8-5147-4608-B08B-2A792C0C9799}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{495A3C41-0290-A44E-B57D-E58F10224CF2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{495A3C41-0290-A44E-B57D-E58F10224CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>MATRIX SIZE</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spead up</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2909,7 +2912,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3864,7 +3867,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4819,7 +4822,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5774,7 +5777,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6729,7 +6732,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7637,6 +7640,1477 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed up'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> spead up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed up'!$A$9:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="193"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed up'!$F$9:$F$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="193"/>
+                <c:pt idx="0">
+                  <c:v>3.4593396432125618E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3669670366502944E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5641342640029372E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0908485223433087E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.992335933406051E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1272192623274784E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4356470045675371E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.826105782354547E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2043481723341566E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6429946278261371E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2384196118166188E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.041047712568511E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7452343718812741E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5574627283936787E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6434539370107569E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6780772470220193E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7157860869165518E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8104750681014662E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0697240660486043E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2239781651740823E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3397467997871742E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4348714228441608E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5740795019827274E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7116983372921616E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8993288465238428E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0889898494846473E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2626409201566007E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4859210691847173E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7659035228520742E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.981545913684841E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2626614460073422E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5023230645793296E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8508225492643447E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1110820390515154E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3426211520990569E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6569207994078467E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.1156485222741334E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6550481339213726E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.1468302514662843E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5323036214723254E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1621496641267768E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.7402568517446216E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.1129357096351079E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.5984648237730596E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8782708901318175E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.4702259999728811E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.920173915043877E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10434855832717724</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.11121487425444257</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1177550525558177</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.12265234041254729</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12896976063915835</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.13302602723646237</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14386525343055914</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.15414470103123529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.15830648209817649</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.16614101201176809</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17760662981464556</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.19135289205185002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19964167709524369</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20755149402138806</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.21078841444736834</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.22419901303675338</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.2325860139756501</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.23796226803820289</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.23934169948791725</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.25355159929232746</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.26155765182817492</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.2731318784420676</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.2797706387289593</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.29468282523635742</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.31123493832452259</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.32791554866443223</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.33590020838707674</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.34437530491620133</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.35232714141969174</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.36618452439449306</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.37336514653899033</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.37818054767000048</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.38712982159324921</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.4054843536985831</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.42339823515585107</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.44244068088495669</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.45321000408599499</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.4689715156245256</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49026524004545741</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.50888704870946933</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.51392259401302864</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.52472097421936748</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.53628130880961522</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.56185839901270562</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.58009440945211799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.59655875147829029</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.61939002915927066</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.64714259806483965</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.66443719298979553</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.69222983385167136</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.68764740166445293</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.69903361266873143</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.70613661007087714</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.71629677160224747</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.72106386789758292</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.73799774551270303</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.75320123919965409</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.79400182845339806</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.81529424860494248</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.85023511724915257</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.87502339608638402</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.90604932997205112</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.92687192013663244</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.95713854661021103</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.98020866400709528</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0202714724461952</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.0437236031295436</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.0749291707304147</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.0995310559212492</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.132133872762078</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1457947595803175</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1795201243015507</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.2035129954815507</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2710362976978344</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3067147167504052</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3499453882085011</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.3889286011137898</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4186625924317089</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.4535731607794062</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.532510145063126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.5232256039544412</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.5713201870351801</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.6176756194992046</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.6457555133996962</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.668291087595684</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.710744699832925</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.6998243291944837</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.7257401035218889</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.73778150084989</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.7687277041440757</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.8152426292220214</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.87222804586361</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.8899536441270453</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.9123712245142246</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.9478668386834039</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.9925181496753344</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.0204631787276153</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.0598744444462191</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.0822227601671588</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.1310598686492348</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.1756543193305244</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.1962925491574476</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.2159994501048232</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.2442348937652716</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.2775202574893547</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.3016461431173112</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.330700422197248</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.388879047578325</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.492604079499535</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.5435884919685021</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.595836280760599</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.6611554359319425</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.7351665882479681</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.7962667643095851</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.8616321936710065</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.8943371066629946</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.9878358521228878</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.0835833351200423</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.1497804848650959</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.2810088816391816</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.3592885308887461</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.4085634597009697</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.480227526240105</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.5143334233066703</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.5477730784993358</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.6370575477105955</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.6889359435164644</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.7082708313974324</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.782334134674961</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.829220247963371</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.8554739861738261</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.9104101019347612</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.9654914134179489</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4.0478250550385884</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.1434107182676332</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.1058523727544172</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.1770425851872979</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.2711162455431273</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.327153494439739</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.3810371639848924</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4.3566803308564079</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.2963340536839674</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.4451152360705937</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.4727542158849554</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.4299303851071468</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.3676440913927683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD90-4F19-9849-5ED9599056A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1162002880"/>
+        <c:axId val="1162002400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1162002880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1162002400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1162002400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1162002880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7882,6 +9356,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11017,6 +12531,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11242,6 +13272,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C932DFEE-28C8-C839-A0E9-81190822050D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11569,11 +13640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9638D0BC-FA10-DC45-8B84-163D5FF41A31}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="84" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11584,20 +13655,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590ADE5D-AA0C-414D-9AB6-2AA90283ED24}">
   <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6875" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.8125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="4" bestFit="1" customWidth="1"/>
@@ -11608,15 +13679,15 @@
     <col min="20" max="20" width="11.5" customWidth="1"/>
     <col min="22" max="22" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.6875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6875" customWidth="1"/>
+    <col min="27" max="27" width="12.6875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6875" customWidth="1"/>
+    <col min="29" max="29" width="12.6875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11660,7 +13731,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -11752,7 +13823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11820,7 +13891,7 @@
       </c>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
@@ -11894,7 +13965,7 @@
       </c>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>4</v>
@@ -11968,7 +14039,7 @@
       </c>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12078,7 +14149,7 @@
         <v>6.1515042857142861</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12188,7 +14259,7 @@
         <v>6.7235128571428575</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12298,7 +14369,7 @@
         <v>7.3972942857142856</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12408,7 +14479,7 @@
         <v>7.9150942857142867</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12518,7 +14589,7 @@
         <v>8.4685042857142854</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12628,7 +14699,7 @@
         <v>8.9335242857142845</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12738,7 +14809,7 @@
         <v>9.5700857142857139</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12848,7 +14919,7 @@
         <v>9.7920471428571432</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12958,7 +15029,7 @@
         <v>10.195590000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -13068,7 +15139,7 @@
         <v>10.735885714285715</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -13178,7 +15249,7 @@
         <v>11.300989999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13288,7 +15359,7 @@
         <v>11.66660857142857</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13398,7 +15469,7 @@
         <v>12.322112857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13508,7 +15579,7 @@
         <v>12.89799857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -13618,7 +15689,7 @@
         <v>13.793875714285713</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13728,7 +15799,7 @@
         <v>14.274057142857144</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -13838,7 +15909,7 @@
         <v>14.80659</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -13948,7 +16019,7 @@
         <v>17.141677142857141</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -14058,7 +16129,7 @@
         <v>19.079744285714284</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -14168,7 +16239,7 @@
         <v>20.097554285714281</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -14278,7 +16349,7 @@
         <v>20.629097142857145</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -14388,7 +16459,7 @@
         <v>20.884601428571429</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14498,7 +16569,7 @@
         <v>21.389497142857142</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -14608,7 +16679,7 @@
         <v>21.909507142857144</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14718,7 +16789,7 @@
         <v>20.59328714285714</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14828,7 +16899,7 @@
         <v>20.163220000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -14938,7 +17009,7 @@
         <v>20.421828571428573</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -15048,7 +17119,7 @@
         <v>20.756810000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -15158,7 +17229,7 @@
         <v>22.470057142857147</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -15268,7 +17339,7 @@
         <v>23.467722857142856</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -15378,7 +17449,7 @@
         <v>24.962541428571431</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -15488,7 +17559,7 @@
         <v>25.659017142857145</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -15598,7 +17669,7 @@
         <v>25.895122857142855</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -15708,7 +17779,7 @@
         <v>26.941771428571428</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -15818,7 +17889,7 @@
         <v>31.915217142857145</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -15928,7 +17999,7 @@
         <v>34.026055714285704</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -16038,7 +18109,7 @@
         <v>36.317571428571426</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -16148,7 +18219,7 @@
         <v>37.669420000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -16258,7 +18329,7 @@
         <v>39.812554285714285</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -16368,7 +18439,7 @@
         <v>43.580714285714294</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -16478,7 +18549,7 @@
         <v>45.711971428571431</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -16588,7 +18659,7 @@
         <v>44.848638571428573</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -16698,7 +18769,7 @@
         <v>45.408010000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -16778,7 +18849,7 @@
       </c>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -16858,7 +18929,7 @@
       </c>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -16938,7 +19009,7 @@
       </c>
       <c r="AD51" s="3"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -16959,7 +19030,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -16980,7 +19051,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -17001,7 +19072,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -17022,7 +19093,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -17043,7 +19114,7 @@
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -17064,7 +19135,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -17085,7 +19156,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -17106,7 +19177,7 @@
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -17127,7 +19198,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -17148,7 +19219,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -17169,7 +19240,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -17190,7 +19261,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -17211,7 +19282,7 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -17232,7 +19303,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -17253,7 +19324,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -17274,7 +19345,7 @@
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -17295,7 +19366,7 @@
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69">
         <f t="shared" ref="A69:A132" si="353">A68+1</f>
         <v>68</v>
@@ -17316,7 +19387,7 @@
       </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70">
         <f t="shared" si="353"/>
         <v>69</v>
@@ -17337,7 +19408,7 @@
       </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71">
         <f t="shared" si="353"/>
         <v>70</v>
@@ -17358,7 +19429,7 @@
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72">
         <f t="shared" si="353"/>
         <v>71</v>
@@ -17379,7 +19450,7 @@
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73">
         <f t="shared" si="353"/>
         <v>72</v>
@@ -17400,7 +19471,7 @@
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74">
         <f t="shared" si="353"/>
         <v>73</v>
@@ -17421,7 +19492,7 @@
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75">
         <f t="shared" si="353"/>
         <v>74</v>
@@ -17442,7 +19513,7 @@
       </c>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76">
         <f t="shared" si="353"/>
         <v>75</v>
@@ -17463,7 +19534,7 @@
       </c>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77">
         <f t="shared" si="353"/>
         <v>76</v>
@@ -17484,7 +19555,7 @@
       </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78">
         <f t="shared" si="353"/>
         <v>77</v>
@@ -17505,7 +19576,7 @@
       </c>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79">
         <f t="shared" si="353"/>
         <v>78</v>
@@ -17526,7 +19597,7 @@
       </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80">
         <f t="shared" si="353"/>
         <v>79</v>
@@ -17547,7 +19618,7 @@
       </c>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81">
         <f t="shared" si="353"/>
         <v>80</v>
@@ -17568,7 +19639,7 @@
       </c>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82">
         <f t="shared" si="353"/>
         <v>81</v>
@@ -17589,7 +19660,7 @@
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83">
         <f t="shared" si="353"/>
         <v>82</v>
@@ -17610,7 +19681,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84">
         <f t="shared" si="353"/>
         <v>83</v>
@@ -17631,7 +19702,7 @@
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85">
         <f t="shared" si="353"/>
         <v>84</v>
@@ -17652,7 +19723,7 @@
       </c>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86">
         <f t="shared" si="353"/>
         <v>85</v>
@@ -17673,7 +19744,7 @@
       </c>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87">
         <f t="shared" si="353"/>
         <v>86</v>
@@ -17694,7 +19765,7 @@
       </c>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A88">
         <f t="shared" si="353"/>
         <v>87</v>
@@ -17715,7 +19786,7 @@
       </c>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89">
         <f t="shared" si="353"/>
         <v>88</v>
@@ -17736,7 +19807,7 @@
       </c>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90">
         <f t="shared" si="353"/>
         <v>89</v>
@@ -17757,7 +19828,7 @@
       </c>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91">
         <f t="shared" si="353"/>
         <v>90</v>
@@ -17778,7 +19849,7 @@
       </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92">
         <f t="shared" si="353"/>
         <v>91</v>
@@ -17799,7 +19870,7 @@
       </c>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93">
         <f t="shared" si="353"/>
         <v>92</v>
@@ -17820,7 +19891,7 @@
       </c>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94">
         <f t="shared" si="353"/>
         <v>93</v>
@@ -17841,7 +19912,7 @@
       </c>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95">
         <f t="shared" si="353"/>
         <v>94</v>
@@ -17862,7 +19933,7 @@
       </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A96">
         <f t="shared" si="353"/>
         <v>95</v>
@@ -17883,7 +19954,7 @@
       </c>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A97">
         <f t="shared" si="353"/>
         <v>96</v>
@@ -17904,7 +19975,7 @@
       </c>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A98">
         <f t="shared" si="353"/>
         <v>97</v>
@@ -17925,7 +19996,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A99">
         <f t="shared" si="353"/>
         <v>98</v>
@@ -17946,7 +20017,7 @@
       </c>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A100">
         <f t="shared" si="353"/>
         <v>99</v>
@@ -17967,7 +20038,7 @@
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A101">
         <f t="shared" si="353"/>
         <v>100</v>
@@ -17988,7 +20059,7 @@
       </c>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A102">
         <f t="shared" si="353"/>
         <v>101</v>
@@ -18009,7 +20080,7 @@
       </c>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A103">
         <f t="shared" si="353"/>
         <v>102</v>
@@ -18030,7 +20101,7 @@
       </c>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A104">
         <f t="shared" si="353"/>
         <v>103</v>
@@ -18051,7 +20122,7 @@
       </c>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A105">
         <f t="shared" si="353"/>
         <v>104</v>
@@ -18072,7 +20143,7 @@
       </c>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A106">
         <f t="shared" si="353"/>
         <v>105</v>
@@ -18093,7 +20164,7 @@
       </c>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A107">
         <f t="shared" si="353"/>
         <v>106</v>
@@ -18114,7 +20185,7 @@
       </c>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A108">
         <f t="shared" si="353"/>
         <v>107</v>
@@ -18135,7 +20206,7 @@
       </c>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A109">
         <f t="shared" si="353"/>
         <v>108</v>
@@ -18156,7 +20227,7 @@
       </c>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A110">
         <f t="shared" si="353"/>
         <v>109</v>
@@ -18177,7 +20248,7 @@
       </c>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A111">
         <f t="shared" si="353"/>
         <v>110</v>
@@ -18198,7 +20269,7 @@
       </c>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A112">
         <f t="shared" si="353"/>
         <v>111</v>
@@ -18219,7 +20290,7 @@
       </c>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A113">
         <f t="shared" si="353"/>
         <v>112</v>
@@ -18240,7 +20311,7 @@
       </c>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A114">
         <f t="shared" si="353"/>
         <v>113</v>
@@ -18261,7 +20332,7 @@
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A115">
         <f t="shared" si="353"/>
         <v>114</v>
@@ -18282,7 +20353,7 @@
       </c>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A116">
         <f t="shared" si="353"/>
         <v>115</v>
@@ -18303,7 +20374,7 @@
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A117">
         <f t="shared" si="353"/>
         <v>116</v>
@@ -18324,7 +20395,7 @@
       </c>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A118">
         <f t="shared" si="353"/>
         <v>117</v>
@@ -18345,7 +20416,7 @@
       </c>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A119">
         <f t="shared" si="353"/>
         <v>118</v>
@@ -18366,7 +20437,7 @@
       </c>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A120">
         <f t="shared" si="353"/>
         <v>119</v>
@@ -18387,7 +20458,7 @@
       </c>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A121">
         <f t="shared" si="353"/>
         <v>120</v>
@@ -18408,7 +20479,7 @@
       </c>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A122">
         <f t="shared" si="353"/>
         <v>121</v>
@@ -18429,7 +20500,7 @@
       </c>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A123">
         <f t="shared" si="353"/>
         <v>122</v>
@@ -18450,7 +20521,7 @@
       </c>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A124">
         <f t="shared" si="353"/>
         <v>123</v>
@@ -18471,7 +20542,7 @@
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A125">
         <f t="shared" si="353"/>
         <v>124</v>
@@ -18492,7 +20563,7 @@
       </c>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A126">
         <f t="shared" si="353"/>
         <v>125</v>
@@ -18513,7 +20584,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A127">
         <f t="shared" si="353"/>
         <v>126</v>
@@ -18534,7 +20605,7 @@
       </c>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A128">
         <f t="shared" si="353"/>
         <v>127</v>
@@ -18555,7 +20626,7 @@
       </c>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A129">
         <f t="shared" si="353"/>
         <v>128</v>
@@ -18576,7 +20647,7 @@
       </c>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A130">
         <f t="shared" si="353"/>
         <v>129</v>
@@ -18597,7 +20668,7 @@
       </c>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A131">
         <f t="shared" si="353"/>
         <v>130</v>
@@ -18618,7 +20689,7 @@
       </c>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A132">
         <f t="shared" si="353"/>
         <v>131</v>
@@ -18639,7 +20710,7 @@
       </c>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A133">
         <f t="shared" ref="A133:A196" si="355">A132+1</f>
         <v>132</v>
@@ -18660,7 +20731,7 @@
       </c>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A134">
         <f t="shared" si="355"/>
         <v>133</v>
@@ -18681,7 +20752,7 @@
       </c>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A135">
         <f t="shared" si="355"/>
         <v>134</v>
@@ -18702,7 +20773,7 @@
       </c>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A136">
         <f t="shared" si="355"/>
         <v>135</v>
@@ -18723,7 +20794,7 @@
       </c>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A137">
         <f t="shared" si="355"/>
         <v>136</v>
@@ -18744,7 +20815,7 @@
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A138">
         <f t="shared" si="355"/>
         <v>137</v>
@@ -18765,7 +20836,7 @@
       </c>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A139">
         <f t="shared" si="355"/>
         <v>138</v>
@@ -18786,7 +20857,7 @@
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A140">
         <f t="shared" si="355"/>
         <v>139</v>
@@ -18807,7 +20878,7 @@
       </c>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A141">
         <f t="shared" si="355"/>
         <v>140</v>
@@ -18828,7 +20899,7 @@
       </c>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A142">
         <f t="shared" si="355"/>
         <v>141</v>
@@ -18849,7 +20920,7 @@
       </c>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A143">
         <f t="shared" si="355"/>
         <v>142</v>
@@ -18870,7 +20941,7 @@
       </c>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A144">
         <f t="shared" si="355"/>
         <v>143</v>
@@ -18891,7 +20962,7 @@
       </c>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A145">
         <f t="shared" si="355"/>
         <v>144</v>
@@ -18912,7 +20983,7 @@
       </c>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A146">
         <f t="shared" si="355"/>
         <v>145</v>
@@ -18933,7 +21004,7 @@
       </c>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A147">
         <f t="shared" si="355"/>
         <v>146</v>
@@ -18954,7 +21025,7 @@
       </c>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A148">
         <f t="shared" si="355"/>
         <v>147</v>
@@ -18975,7 +21046,7 @@
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A149">
         <f t="shared" si="355"/>
         <v>148</v>
@@ -18996,7 +21067,7 @@
       </c>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A150">
         <f t="shared" si="355"/>
         <v>149</v>
@@ -19017,7 +21088,7 @@
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A151">
         <f t="shared" si="355"/>
         <v>150</v>
@@ -19038,7 +21109,7 @@
       </c>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A152">
         <f t="shared" si="355"/>
         <v>151</v>
@@ -19059,7 +21130,7 @@
       </c>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A153">
         <f t="shared" si="355"/>
         <v>152</v>
@@ -19080,7 +21151,7 @@
       </c>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A154">
         <f t="shared" si="355"/>
         <v>153</v>
@@ -19101,7 +21172,7 @@
       </c>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A155">
         <f t="shared" si="355"/>
         <v>154</v>
@@ -19122,7 +21193,7 @@
       </c>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A156">
         <f t="shared" si="355"/>
         <v>155</v>
@@ -19143,7 +21214,7 @@
       </c>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A157">
         <f t="shared" si="355"/>
         <v>156</v>
@@ -19164,7 +21235,7 @@
       </c>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A158">
         <f t="shared" si="355"/>
         <v>157</v>
@@ -19185,7 +21256,7 @@
       </c>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A159">
         <f t="shared" si="355"/>
         <v>158</v>
@@ -19206,7 +21277,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A160">
         <f t="shared" si="355"/>
         <v>159</v>
@@ -19227,7 +21298,7 @@
       </c>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A161">
         <f t="shared" si="355"/>
         <v>160</v>
@@ -19248,7 +21319,7 @@
       </c>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A162">
         <f t="shared" si="355"/>
         <v>161</v>
@@ -19269,7 +21340,7 @@
       </c>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A163">
         <f t="shared" si="355"/>
         <v>162</v>
@@ -19290,7 +21361,7 @@
       </c>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A164">
         <f t="shared" si="355"/>
         <v>163</v>
@@ -19311,7 +21382,7 @@
       </c>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A165">
         <f t="shared" si="355"/>
         <v>164</v>
@@ -19332,7 +21403,7 @@
       </c>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A166">
         <f t="shared" si="355"/>
         <v>165</v>
@@ -19353,7 +21424,7 @@
       </c>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A167">
         <f t="shared" si="355"/>
         <v>166</v>
@@ -19374,7 +21445,7 @@
       </c>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A168">
         <f t="shared" si="355"/>
         <v>167</v>
@@ -19395,7 +21466,7 @@
       </c>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A169">
         <f t="shared" si="355"/>
         <v>168</v>
@@ -19416,7 +21487,7 @@
       </c>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A170">
         <f t="shared" si="355"/>
         <v>169</v>
@@ -19437,7 +21508,7 @@
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A171">
         <f t="shared" si="355"/>
         <v>170</v>
@@ -19458,7 +21529,7 @@
       </c>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A172">
         <f t="shared" si="355"/>
         <v>171</v>
@@ -19479,7 +21550,7 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A173">
         <f t="shared" si="355"/>
         <v>172</v>
@@ -19500,7 +21571,7 @@
       </c>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A174">
         <f t="shared" si="355"/>
         <v>173</v>
@@ -19521,7 +21592,7 @@
       </c>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A175">
         <f t="shared" si="355"/>
         <v>174</v>
@@ -19542,7 +21613,7 @@
       </c>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A176">
         <f t="shared" si="355"/>
         <v>175</v>
@@ -19563,7 +21634,7 @@
       </c>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A177">
         <f t="shared" si="355"/>
         <v>176</v>
@@ -19584,7 +21655,7 @@
       </c>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A178">
         <f t="shared" si="355"/>
         <v>177</v>
@@ -19605,7 +21676,7 @@
       </c>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A179">
         <f t="shared" si="355"/>
         <v>178</v>
@@ -19626,7 +21697,7 @@
       </c>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A180">
         <f t="shared" si="355"/>
         <v>179</v>
@@ -19647,7 +21718,7 @@
       </c>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A181">
         <f t="shared" si="355"/>
         <v>180</v>
@@ -19668,7 +21739,7 @@
       </c>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A182">
         <f t="shared" si="355"/>
         <v>181</v>
@@ -19689,7 +21760,7 @@
       </c>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A183">
         <f t="shared" si="355"/>
         <v>182</v>
@@ -19710,7 +21781,7 @@
       </c>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A184">
         <f t="shared" si="355"/>
         <v>183</v>
@@ -19731,7 +21802,7 @@
       </c>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A185">
         <f t="shared" si="355"/>
         <v>184</v>
@@ -19752,7 +21823,7 @@
       </c>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A186">
         <f t="shared" si="355"/>
         <v>185</v>
@@ -19773,7 +21844,7 @@
       </c>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A187">
         <f t="shared" si="355"/>
         <v>186</v>
@@ -19794,7 +21865,7 @@
       </c>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A188">
         <f t="shared" si="355"/>
         <v>187</v>
@@ -19815,7 +21886,7 @@
       </c>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A189">
         <f t="shared" si="355"/>
         <v>188</v>
@@ -19836,7 +21907,7 @@
       </c>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A190">
         <f t="shared" si="355"/>
         <v>189</v>
@@ -19857,7 +21928,7 @@
       </c>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A191">
         <f t="shared" si="355"/>
         <v>190</v>
@@ -19878,7 +21949,7 @@
       </c>
       <c r="H191" s="3"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A192">
         <f t="shared" si="355"/>
         <v>191</v>
@@ -19899,7 +21970,7 @@
       </c>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A193">
         <f t="shared" si="355"/>
         <v>192</v>
@@ -19920,7 +21991,7 @@
       </c>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A194">
         <f t="shared" si="355"/>
         <v>193</v>
@@ -19941,7 +22012,7 @@
       </c>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A195">
         <f t="shared" si="355"/>
         <v>194</v>
@@ -19962,7 +22033,7 @@
       </c>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A196">
         <f t="shared" si="355"/>
         <v>195</v>
@@ -19983,7 +22054,7 @@
       </c>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A197">
         <f t="shared" ref="A197:A201" si="357">A196+1</f>
         <v>196</v>
@@ -20004,7 +22075,7 @@
       </c>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A198">
         <f t="shared" si="357"/>
         <v>197</v>
@@ -20025,7 +22096,7 @@
       </c>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A199">
         <f t="shared" si="357"/>
         <v>198</v>
@@ -20040,7 +22111,7 @@
       <c r="E199" s="3"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A200">
         <f t="shared" si="357"/>
         <v>199</v>
@@ -20055,7 +22126,7 @@
       <c r="E200" s="3"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A201">
         <f t="shared" si="357"/>
         <v>200</v>
@@ -20070,15 +22141,15 @@
       <c r="E201" s="3"/>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C202" s="3"/>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C203" s="3"/>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.5">
       <c r="H204" s="3"/>
     </row>
   </sheetData>
@@ -20096,14 +22167,5194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A3BC3E-F4AD-8A40-922C-B24D6659330A}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:F204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="K194" sqref="K194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <f>'Time Taken'!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f>'Time Taken'!B3</f>
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="C6">
+        <f>'Time Taken'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>'Time Taken'!D3</f>
+        <v>4.3359999999999996E-3</v>
+      </c>
+      <c r="E6">
+        <f>'Time Taken'!E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <f>'Time Taken'!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f>'Time Taken'!B4</f>
+        <v>8.5000000000000001E-7</v>
+      </c>
+      <c r="C7">
+        <f>'Time Taken'!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>'Time Taken'!D4</f>
+        <v>4.0337999999999997E-3</v>
+      </c>
+      <c r="E7">
+        <f>'Time Taken'!E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <f>'Time Taken'!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>'Time Taken'!B5</f>
+        <v>9.5000000000000001E-7</v>
+      </c>
+      <c r="C8">
+        <f>'Time Taken'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>'Time Taken'!D5</f>
+        <v>4.4603000000000004E-3</v>
+      </c>
+      <c r="E8">
+        <f>'Time Taken'!E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <f>'Time Taken'!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>'Time Taken'!B6</f>
+        <v>1.3E-6</v>
+      </c>
+      <c r="C9">
+        <f>'Time Taken'!C6</f>
+        <v>1.5071428571428571E-3</v>
+      </c>
+      <c r="D9">
+        <f>'Time Taken'!D6</f>
+        <v>5.0830500000000004E-3</v>
+      </c>
+      <c r="E9">
+        <f>'Time Taken'!E6</f>
+        <v>4.3567357142857146</v>
+      </c>
+      <c r="F9">
+        <f xml:space="preserve"> C9/E9</f>
+        <v>3.4593396432125618E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <f>'Time Taken'!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f>'Time Taken'!B7</f>
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="C10">
+        <f>'Time Taken'!C7</f>
+        <v>1.9357142857142856E-3</v>
+      </c>
+      <c r="D10">
+        <f>'Time Taken'!D7</f>
+        <v>4.3501E-3</v>
+      </c>
+      <c r="E10">
+        <f>'Time Taken'!E7</f>
+        <v>4.4326285714285714</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F73" si="0" xml:space="preserve"> C10/E10</f>
+        <v>4.3669670366502944E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <f>'Time Taken'!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>'Time Taken'!B8</f>
+        <v>2.0499999999999999E-6</v>
+      </c>
+      <c r="C11">
+        <f>'Time Taken'!C8</f>
+        <v>2.4785714285714289E-3</v>
+      </c>
+      <c r="D11">
+        <f>'Time Taken'!D8</f>
+        <v>3.8530499999999998E-3</v>
+      </c>
+      <c r="E11">
+        <f>'Time Taken'!E8</f>
+        <v>4.4545500000000011</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.5641342640029372E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <f>'Time Taken'!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>'Time Taken'!B9</f>
+        <v>2.9000000000000002E-6</v>
+      </c>
+      <c r="C12">
+        <f>'Time Taken'!C9</f>
+        <v>3.1928571428571422E-3</v>
+      </c>
+      <c r="D12">
+        <f>'Time Taken'!D9</f>
+        <v>4.3808500000000004E-3</v>
+      </c>
+      <c r="E12">
+        <f>'Time Taken'!E9</f>
+        <v>4.5027857142857153</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>7.0908485223433087E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <f>'Time Taken'!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>'Time Taken'!B10</f>
+        <v>3.7000000000000002E-6</v>
+      </c>
+      <c r="C13">
+        <f>'Time Taken'!C10</f>
+        <v>4.0571428571428564E-3</v>
+      </c>
+      <c r="D13">
+        <f>'Time Taken'!D10</f>
+        <v>4.86725E-3</v>
+      </c>
+      <c r="E13">
+        <f>'Time Taken'!E10</f>
+        <v>4.5117785714285716</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>8.992335933406051E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <f>'Time Taken'!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>'Time Taken'!B11</f>
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="C14">
+        <f>'Time Taken'!C11</f>
+        <v>5.0928571428571429E-3</v>
+      </c>
+      <c r="D14">
+        <f>'Time Taken'!D11</f>
+        <v>4.18725E-3</v>
+      </c>
+      <c r="E14">
+        <f>'Time Taken'!E11</f>
+        <v>4.518071428571429</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.1272192623274784E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <f>'Time Taken'!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f>'Time Taken'!B12</f>
+        <v>5.9499999999999998E-6</v>
+      </c>
+      <c r="C15">
+        <f>'Time Taken'!C12</f>
+        <v>6.492857142857144E-3</v>
+      </c>
+      <c r="D15">
+        <f>'Time Taken'!D12</f>
+        <v>4.7979499999999996E-3</v>
+      </c>
+      <c r="E15">
+        <f>'Time Taken'!E12</f>
+        <v>4.5226000000000006</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.4356470045675371E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <f>'Time Taken'!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <f>'Time Taken'!B13</f>
+        <v>7.3499999999999999E-6</v>
+      </c>
+      <c r="C16">
+        <f>'Time Taken'!C13</f>
+        <v>8.314285714285715E-3</v>
+      </c>
+      <c r="D16">
+        <f>'Time Taken'!D13</f>
+        <v>5.1460000000000004E-3</v>
+      </c>
+      <c r="E16">
+        <f>'Time Taken'!E13</f>
+        <v>4.5530142857142861</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.826105782354547E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <f>'Time Taken'!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>'Time Taken'!B14</f>
+        <v>9.0499999999999997E-6</v>
+      </c>
+      <c r="C17">
+        <f>'Time Taken'!C14</f>
+        <v>9.8857142857142859E-3</v>
+      </c>
+      <c r="D17">
+        <f>'Time Taken'!D14</f>
+        <v>4.3941500000000003E-3</v>
+      </c>
+      <c r="E17">
+        <f>'Time Taken'!E14</f>
+        <v>4.4846428571428563</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2.2043481723341566E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <f>'Time Taken'!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>'Time Taken'!B15</f>
+        <v>1.185E-5</v>
+      </c>
+      <c r="C18">
+        <f>'Time Taken'!C15</f>
+        <v>1.182857142857143E-2</v>
+      </c>
+      <c r="D18">
+        <f>'Time Taken'!D15</f>
+        <v>3.8847500000000002E-3</v>
+      </c>
+      <c r="E18">
+        <f>'Time Taken'!E15</f>
+        <v>4.4754428571428573</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2.6429946278261371E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <f>'Time Taken'!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f>'Time Taken'!B16</f>
+        <v>1.5650000000000001E-5</v>
+      </c>
+      <c r="C19">
+        <f>'Time Taken'!C16</f>
+        <v>1.4085714285714286E-2</v>
+      </c>
+      <c r="D19">
+        <f>'Time Taken'!D16</f>
+        <v>4.5937499999999997E-3</v>
+      </c>
+      <c r="E19">
+        <f>'Time Taken'!E16</f>
+        <v>4.349564285714286</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3.2384196118166188E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <f>'Time Taken'!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f>'Time Taken'!B17</f>
+        <v>1.47E-5</v>
+      </c>
+      <c r="C20">
+        <f>'Time Taken'!C17</f>
+        <v>1.6578571428571429E-2</v>
+      </c>
+      <c r="D20">
+        <f>'Time Taken'!D17</f>
+        <v>4.38865E-3</v>
+      </c>
+      <c r="E20">
+        <f>'Time Taken'!E17</f>
+        <v>4.1025428571428577</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4.041047712568511E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <f>'Time Taken'!A18</f>
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>'Time Taken'!B18</f>
+        <v>1.825E-5</v>
+      </c>
+      <c r="C21">
+        <f>'Time Taken'!C18</f>
+        <v>1.9528571428571426E-2</v>
+      </c>
+      <c r="D21">
+        <f>'Time Taken'!D18</f>
+        <v>4.12285E-3</v>
+      </c>
+      <c r="E21">
+        <f>'Time Taken'!E18</f>
+        <v>4.1154071428571433</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>4.7452343718812741E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <f>'Time Taken'!A19</f>
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <f>'Time Taken'!B19</f>
+        <v>2.175E-5</v>
+      </c>
+      <c r="C22">
+        <f>'Time Taken'!C19</f>
+        <v>2.2664285714285713E-2</v>
+      </c>
+      <c r="D22">
+        <f>'Time Taken'!D19</f>
+        <v>3.9167999999999998E-3</v>
+      </c>
+      <c r="E22">
+        <f>'Time Taken'!E19</f>
+        <v>4.0781714285714274</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>5.5574627283936787E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <f>'Time Taken'!A20</f>
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <f>'Time Taken'!B20</f>
+        <v>2.48E-5</v>
+      </c>
+      <c r="C23">
+        <f>'Time Taken'!C20</f>
+        <v>2.5921428571428571E-2</v>
+      </c>
+      <c r="D23">
+        <f>'Time Taken'!D20</f>
+        <v>3.4168499999999999E-3</v>
+      </c>
+      <c r="E23">
+        <f>'Time Taken'!E20</f>
+        <v>3.9018000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>6.6434539370107569E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <f>'Time Taken'!A21</f>
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <f>'Time Taken'!B21</f>
+        <v>2.97E-5</v>
+      </c>
+      <c r="C24">
+        <f>'Time Taken'!C21</f>
+        <v>2.9171428571428574E-2</v>
+      </c>
+      <c r="D24">
+        <f>'Time Taken'!D21</f>
+        <v>4.4841999999999998E-3</v>
+      </c>
+      <c r="E24">
+        <f>'Time Taken'!E21</f>
+        <v>3.7993142857142859</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>7.6780772470220193E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <f>'Time Taken'!A22</f>
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <f>'Time Taken'!B22</f>
+        <v>3.3800000000000002E-5</v>
+      </c>
+      <c r="C25">
+        <f>'Time Taken'!C22</f>
+        <v>3.2507142857142853E-2</v>
+      </c>
+      <c r="D25">
+        <f>'Time Taken'!D22</f>
+        <v>3.6240999999999999E-3</v>
+      </c>
+      <c r="E25">
+        <f>'Time Taken'!E22</f>
+        <v>3.7296857142857145</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>8.7157860869165518E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <f>'Time Taken'!A23</f>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <f>'Time Taken'!B23</f>
+        <v>3.8449999999999999E-5</v>
+      </c>
+      <c r="C26">
+        <f>'Time Taken'!C23</f>
+        <v>3.6271428571428573E-2</v>
+      </c>
+      <c r="D26">
+        <f>'Time Taken'!D23</f>
+        <v>3.35915E-3</v>
+      </c>
+      <c r="E26">
+        <f>'Time Taken'!E23</f>
+        <v>3.6972142857142858</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>9.8104750681014662E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <f>'Time Taken'!A24</f>
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <f>'Time Taken'!B24</f>
+        <v>3.7450000000000002E-5</v>
+      </c>
+      <c r="C27">
+        <f>'Time Taken'!C24</f>
+        <v>4.0392857142857147E-2</v>
+      </c>
+      <c r="D27">
+        <f>'Time Taken'!D24</f>
+        <v>3.67125E-3</v>
+      </c>
+      <c r="E27">
+        <f>'Time Taken'!E24</f>
+        <v>3.776007142857142</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.0697240660486043E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <f>'Time Taken'!A25</f>
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <f>'Time Taken'!B25</f>
+        <v>4.1600000000000002E-5</v>
+      </c>
+      <c r="C28">
+        <f>'Time Taken'!C25</f>
+        <v>4.4428571428571421E-2</v>
+      </c>
+      <c r="D28">
+        <f>'Time Taken'!D25</f>
+        <v>3.6354500000000001E-3</v>
+      </c>
+      <c r="E28">
+        <f>'Time Taken'!E25</f>
+        <v>3.6298499999999998</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.2239781651740823E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <f>'Time Taken'!A26</f>
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <f>'Time Taken'!B26</f>
+        <v>4.8099999999999997E-5</v>
+      </c>
+      <c r="C29">
+        <f>'Time Taken'!C26</f>
+        <v>4.8921428571428574E-2</v>
+      </c>
+      <c r="D29">
+        <f>'Time Taken'!D26</f>
+        <v>3.6895000000000001E-3</v>
+      </c>
+      <c r="E29">
+        <f>'Time Taken'!E26</f>
+        <v>3.6515428571428572</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.3397467997871742E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <f>'Time Taken'!A27</f>
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <f>'Time Taken'!B27</f>
+        <v>5.3650000000000003E-5</v>
+      </c>
+      <c r="C30">
+        <f>'Time Taken'!C27</f>
+        <v>5.3685714285714288E-2</v>
+      </c>
+      <c r="D30">
+        <f>'Time Taken'!D27</f>
+        <v>3.9684000000000004E-3</v>
+      </c>
+      <c r="E30">
+        <f>'Time Taken'!E27</f>
+        <v>3.7415000000000007</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.4348714228441608E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <f>'Time Taken'!A28</f>
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <f>'Time Taken'!B28</f>
+        <v>5.7949999999999999E-5</v>
+      </c>
+      <c r="C31">
+        <f>'Time Taken'!C28</f>
+        <v>5.9457142857142861E-2</v>
+      </c>
+      <c r="D31">
+        <f>'Time Taken'!D28</f>
+        <v>3.4610999999999999E-3</v>
+      </c>
+      <c r="E31">
+        <f>'Time Taken'!E28</f>
+        <v>3.7772642857142866</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.5740795019827274E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <f>'Time Taken'!A29</f>
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <f>'Time Taken'!B29</f>
+        <v>6.525E-5</v>
+      </c>
+      <c r="C32">
+        <f>'Time Taken'!C29</f>
+        <v>6.5885714285714284E-2</v>
+      </c>
+      <c r="D32">
+        <f>'Time Taken'!D29</f>
+        <v>3.7759500000000001E-3</v>
+      </c>
+      <c r="E32">
+        <f>'Time Taken'!E29</f>
+        <v>3.8491428571428568</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.7116983372921616E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <f>'Time Taken'!A30</f>
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <f>'Time Taken'!B30</f>
+        <v>7.1799999999999997E-5</v>
+      </c>
+      <c r="C33">
+        <f>'Time Taken'!C30</f>
+        <v>7.2628571428571417E-2</v>
+      </c>
+      <c r="D33">
+        <f>'Time Taken'!D30</f>
+        <v>3.9888500000000004E-3</v>
+      </c>
+      <c r="E33">
+        <f>'Time Taken'!E30</f>
+        <v>3.8239071428571432</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.8993288465238428E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <f>'Time Taken'!A31</f>
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <f>'Time Taken'!B31</f>
+        <v>7.7849999999999995E-5</v>
+      </c>
+      <c r="C34">
+        <f>'Time Taken'!C31</f>
+        <v>8.0071428571428571E-2</v>
+      </c>
+      <c r="D34">
+        <f>'Time Taken'!D31</f>
+        <v>3.9215999999999999E-3</v>
+      </c>
+      <c r="E34">
+        <f>'Time Taken'!E31</f>
+        <v>3.8330214285714286</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2.0889898494846473E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <f>'Time Taken'!A32</f>
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <f>'Time Taken'!B32</f>
+        <v>8.6600000000000004E-5</v>
+      </c>
+      <c r="C35">
+        <f>'Time Taken'!C32</f>
+        <v>8.7764285714285725E-2</v>
+      </c>
+      <c r="D35">
+        <f>'Time Taken'!D32</f>
+        <v>4.1386000000000001E-3</v>
+      </c>
+      <c r="E35">
+        <f>'Time Taken'!E32</f>
+        <v>3.8788428571428573</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2.2626409201566007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <f>'Time Taken'!A33</f>
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <f>'Time Taken'!B33</f>
+        <v>9.5299999999999999E-5</v>
+      </c>
+      <c r="C36">
+        <f>'Time Taken'!C33</f>
+        <v>9.5978571428571427E-2</v>
+      </c>
+      <c r="D36">
+        <f>'Time Taken'!D33</f>
+        <v>3.5128500000000001E-3</v>
+      </c>
+      <c r="E36">
+        <f>'Time Taken'!E33</f>
+        <v>3.8608857142857138</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2.4859210691847173E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <f>'Time Taken'!A34</f>
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <f>'Time Taken'!B34</f>
+        <v>1.0575E-4</v>
+      </c>
+      <c r="C37">
+        <f>'Time Taken'!C34</f>
+        <v>0.10523571428571428</v>
+      </c>
+      <c r="D37">
+        <f>'Time Taken'!D34</f>
+        <v>4.0321999999999997E-3</v>
+      </c>
+      <c r="E37">
+        <f>'Time Taken'!E34</f>
+        <v>3.8047499999999994</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2.7659035228520742E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <f>'Time Taken'!A35</f>
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <f>'Time Taken'!B35</f>
+        <v>1.1179999999999999E-4</v>
+      </c>
+      <c r="C38">
+        <f>'Time Taken'!C35</f>
+        <v>0.11439999999999999</v>
+      </c>
+      <c r="D38">
+        <f>'Time Taken'!D35</f>
+        <v>3.7818499999999998E-3</v>
+      </c>
+      <c r="E38">
+        <f>'Time Taken'!E35</f>
+        <v>3.8369357142857146</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>2.981545913684841E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <f>'Time Taken'!A36</f>
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <f>'Time Taken'!B36</f>
+        <v>1.2275E-4</v>
+      </c>
+      <c r="C39">
+        <f>'Time Taken'!C36</f>
+        <v>0.12397857142857141</v>
+      </c>
+      <c r="D39">
+        <f>'Time Taken'!D36</f>
+        <v>3.6502499999999998E-3</v>
+      </c>
+      <c r="E39">
+        <f>'Time Taken'!E36</f>
+        <v>3.7999214285714285</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>3.2626614460073422E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <f>'Time Taken'!A37</f>
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <f>'Time Taken'!B37</f>
+        <v>1.3660000000000001E-4</v>
+      </c>
+      <c r="C40">
+        <f>'Time Taken'!C37</f>
+        <v>0.13407142857142856</v>
+      </c>
+      <c r="D40">
+        <f>'Time Taken'!D37</f>
+        <v>3.5959E-3</v>
+      </c>
+      <c r="E40">
+        <f>'Time Taken'!E37</f>
+        <v>3.8280714285714281</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>3.5023230645793296E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <f>'Time Taken'!A38</f>
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <f>'Time Taken'!B38</f>
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="C41">
+        <f>'Time Taken'!C38</f>
+        <v>0.14434285714285711</v>
+      </c>
+      <c r="D41">
+        <f>'Time Taken'!D38</f>
+        <v>4.1469000000000002E-3</v>
+      </c>
+      <c r="E41">
+        <f>'Time Taken'!E38</f>
+        <v>3.7483642857142856</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>3.8508225492643447E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <f>'Time Taken'!A39</f>
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <f>'Time Taken'!B39</f>
+        <v>1.5364999999999999E-4</v>
+      </c>
+      <c r="C42">
+        <f>'Time Taken'!C39</f>
+        <v>0.15599999999999997</v>
+      </c>
+      <c r="D42">
+        <f>'Time Taken'!D39</f>
+        <v>3.8795000000000001E-3</v>
+      </c>
+      <c r="E42">
+        <f>'Time Taken'!E39</f>
+        <v>3.7946214285714275</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>4.1110820390515154E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <f>'Time Taken'!A40</f>
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <f>'Time Taken'!B40</f>
+        <v>1.6595E-4</v>
+      </c>
+      <c r="C43">
+        <f>'Time Taken'!C40</f>
+        <v>0.16764285714285715</v>
+      </c>
+      <c r="D43">
+        <f>'Time Taken'!D40</f>
+        <v>3.7098999999999999E-3</v>
+      </c>
+      <c r="E43">
+        <f>'Time Taken'!E40</f>
+        <v>3.8604071428571429</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>4.3426211520990569E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <f>'Time Taken'!A41</f>
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <f>'Time Taken'!B41</f>
+        <v>1.7765000000000001E-4</v>
+      </c>
+      <c r="C44">
+        <f>'Time Taken'!C41</f>
+        <v>0.17975714285714287</v>
+      </c>
+      <c r="D44">
+        <f>'Time Taken'!D41</f>
+        <v>3.4742499999999999E-3</v>
+      </c>
+      <c r="E44">
+        <f>'Time Taken'!E41</f>
+        <v>3.86</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>4.6569207994078467E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <f>'Time Taken'!A42</f>
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <f>'Time Taken'!B42</f>
+        <v>1.9340000000000001E-4</v>
+      </c>
+      <c r="C45">
+        <f>'Time Taken'!C42</f>
+        <v>0.19325714285714285</v>
+      </c>
+      <c r="D45">
+        <f>'Time Taken'!D42</f>
+        <v>4.1056499999999998E-3</v>
+      </c>
+      <c r="E45">
+        <f>'Time Taken'!E42</f>
+        <v>3.7777642857142859</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>5.1156485222741334E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A46">
+        <f>'Time Taken'!A43</f>
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <f>'Time Taken'!B43</f>
+        <v>2.0425E-4</v>
+      </c>
+      <c r="C46">
+        <f>'Time Taken'!C43</f>
+        <v>0.21294285714285713</v>
+      </c>
+      <c r="D46">
+        <f>'Time Taken'!D43</f>
+        <v>4.1107499999999998E-3</v>
+      </c>
+      <c r="E46">
+        <f>'Time Taken'!E43</f>
+        <v>3.7655357142857144</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>5.6550481339213726E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A47">
+        <f>'Time Taken'!A44</f>
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <f>'Time Taken'!B44</f>
+        <v>2.2139999999999999E-4</v>
+      </c>
+      <c r="C47">
+        <f>'Time Taken'!C44</f>
+        <v>0.23722857142857143</v>
+      </c>
+      <c r="D47">
+        <f>'Time Taken'!D44</f>
+        <v>3.59305E-3</v>
+      </c>
+      <c r="E47">
+        <f>'Time Taken'!E44</f>
+        <v>3.8593642857142862</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>6.1468302514662843E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <f>'Time Taken'!A45</f>
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <f>'Time Taken'!B45</f>
+        <v>2.365E-4</v>
+      </c>
+      <c r="C48">
+        <f>'Time Taken'!C45</f>
+        <v>0.25357142857142856</v>
+      </c>
+      <c r="D48">
+        <f>'Time Taken'!D45</f>
+        <v>3.5712500000000002E-3</v>
+      </c>
+      <c r="E48">
+        <f>'Time Taken'!E45</f>
+        <v>3.8818071428571428</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>6.5323036214723254E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A49">
+        <f>'Time Taken'!A46</f>
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <f>'Time Taken'!B46</f>
+        <v>2.9145000000000001E-4</v>
+      </c>
+      <c r="C49">
+        <f>'Time Taken'!C46</f>
+        <v>0.27104285714285714</v>
+      </c>
+      <c r="D49">
+        <f>'Time Taken'!D46</f>
+        <v>3.7938999999999998E-3</v>
+      </c>
+      <c r="E49">
+        <f>'Time Taken'!E46</f>
+        <v>3.7843785714285714</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>7.1621496641267768E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A50">
+        <f>'Time Taken'!A47</f>
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <f>'Time Taken'!B47</f>
+        <v>3.3595000000000001E-4</v>
+      </c>
+      <c r="C50">
+        <f>'Time Taken'!C47</f>
+        <v>0.28835</v>
+      </c>
+      <c r="D50">
+        <f>'Time Taken'!D47</f>
+        <v>4.3667000000000003E-3</v>
+      </c>
+      <c r="E50">
+        <f>'Time Taken'!E47</f>
+        <v>3.7253285714285713</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>7.7402568517446216E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A51">
+        <f>'Time Taken'!A48</f>
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <f>'Time Taken'!B48</f>
+        <v>2.9205000000000002E-4</v>
+      </c>
+      <c r="C51">
+        <f>'Time Taken'!C48</f>
+        <v>0.30528571428571427</v>
+      </c>
+      <c r="D51">
+        <f>'Time Taken'!D48</f>
+        <v>3.6313500000000002E-3</v>
+      </c>
+      <c r="E51">
+        <f>'Time Taken'!E48</f>
+        <v>3.76295</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>8.1129357096351079E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A52">
+        <f>'Time Taken'!A49</f>
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <f>'Time Taken'!B49</f>
+        <v>3.1569999999999998E-4</v>
+      </c>
+      <c r="C52">
+        <f>'Time Taken'!C49</f>
+        <v>0.32413571428571419</v>
+      </c>
+      <c r="D52">
+        <f>'Time Taken'!D49</f>
+        <v>3.4236499999999999E-3</v>
+      </c>
+      <c r="E52">
+        <f>'Time Taken'!E49</f>
+        <v>3.7696928571428572</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>8.5984648237730596E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <f>'Time Taken'!A50</f>
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <f>'Time Taken'!B50</f>
+        <v>3.2539999999999999E-4</v>
+      </c>
+      <c r="C53">
+        <f>'Time Taken'!C50</f>
+        <v>0.3384428571428571</v>
+      </c>
+      <c r="D53">
+        <f>'Time Taken'!D50</f>
+        <v>3.6974E-3</v>
+      </c>
+      <c r="E53">
+        <f>'Time Taken'!E50</f>
+        <v>3.8120357142857144</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>8.8782708901318175E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <f>'Time Taken'!A51</f>
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <f>'Time Taken'!B51</f>
+        <v>3.3995E-4</v>
+      </c>
+      <c r="C54">
+        <f>'Time Taken'!C51</f>
+        <v>0.34920714285714288</v>
+      </c>
+      <c r="D54">
+        <f>'Time Taken'!D51</f>
+        <v>3.8563999999999998E-3</v>
+      </c>
+      <c r="E54">
+        <f>'Time Taken'!E51</f>
+        <v>3.6874214285714286</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>9.4702259999728811E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <f>'Time Taken'!A52</f>
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <f>'Time Taken'!B52</f>
+        <v>3.6844999999999998E-4</v>
+      </c>
+      <c r="C55">
+        <f>'Time Taken'!C52</f>
+        <v>0.36962142857142849</v>
+      </c>
+      <c r="D55">
+        <f>'Time Taken'!D52</f>
+        <v>3.6184500000000001E-3</v>
+      </c>
+      <c r="E55">
+        <f>'Time Taken'!E52</f>
+        <v>3.7259571428571436</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>9.920173915043877E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <f>'Time Taken'!A53</f>
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <f>'Time Taken'!B53</f>
+        <v>3.9159999999999998E-4</v>
+      </c>
+      <c r="C56">
+        <f>'Time Taken'!C53</f>
+        <v>0.38945714285714289</v>
+      </c>
+      <c r="D56">
+        <f>'Time Taken'!D53</f>
+        <v>4.0902999999999998E-3</v>
+      </c>
+      <c r="E56">
+        <f>'Time Taken'!E53</f>
+        <v>3.7322714285714294</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0.10434855832717724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A57">
+        <f>'Time Taken'!A54</f>
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <f>'Time Taken'!B54</f>
+        <v>4.1130000000000002E-4</v>
+      </c>
+      <c r="C57">
+        <f>'Time Taken'!C54</f>
+        <v>0.41341428571428562</v>
+      </c>
+      <c r="D57">
+        <f>'Time Taken'!D54</f>
+        <v>3.4943999999999999E-3</v>
+      </c>
+      <c r="E57">
+        <f>'Time Taken'!E54</f>
+        <v>3.717257142857143</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0.11121487425444257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A58">
+        <f>'Time Taken'!A55</f>
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <f>'Time Taken'!B55</f>
+        <v>4.3494999999999997E-4</v>
+      </c>
+      <c r="C58">
+        <f>'Time Taken'!C55</f>
+        <v>0.43707142857142861</v>
+      </c>
+      <c r="D58">
+        <f>'Time Taken'!D55</f>
+        <v>3.9010999999999998E-3</v>
+      </c>
+      <c r="E58">
+        <f>'Time Taken'!E55</f>
+        <v>3.7117000000000004</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.1177550525558177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A59">
+        <f>'Time Taken'!A56</f>
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <f>'Time Taken'!B56</f>
+        <v>4.5455000000000002E-4</v>
+      </c>
+      <c r="C59">
+        <f>'Time Taken'!C56</f>
+        <v>0.45937857142857141</v>
+      </c>
+      <c r="D59">
+        <f>'Time Taken'!D56</f>
+        <v>3.4678500000000002E-3</v>
+      </c>
+      <c r="E59">
+        <f>'Time Taken'!E56</f>
+        <v>3.7453714285714286</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.12265234041254729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <f>'Time Taken'!A57</f>
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <f>'Time Taken'!B57</f>
+        <v>4.9310000000000001E-4</v>
+      </c>
+      <c r="C60">
+        <f>'Time Taken'!C57</f>
+        <v>0.48404285714285716</v>
+      </c>
+      <c r="D60">
+        <f>'Time Taken'!D57</f>
+        <v>3.5923000000000001E-3</v>
+      </c>
+      <c r="E60">
+        <f>'Time Taken'!E57</f>
+        <v>3.7531499999999998</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.12896976063915835</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A61">
+        <f>'Time Taken'!A58</f>
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <f>'Time Taken'!B58</f>
+        <v>5.0555000000000001E-4</v>
+      </c>
+      <c r="C61">
+        <f>'Time Taken'!C58</f>
+        <v>0.50997142857142863</v>
+      </c>
+      <c r="D61">
+        <f>'Time Taken'!D58</f>
+        <v>3.8175000000000001E-3</v>
+      </c>
+      <c r="E61">
+        <f>'Time Taken'!E58</f>
+        <v>3.8336214285714285</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0.13302602723646237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A62">
+        <f>'Time Taken'!A59</f>
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <f>'Time Taken'!B59</f>
+        <v>5.2459999999999996E-4</v>
+      </c>
+      <c r="C62">
+        <f>'Time Taken'!C59</f>
+        <v>0.54622142857142864</v>
+      </c>
+      <c r="D62">
+        <f>'Time Taken'!D59</f>
+        <v>3.8541500000000002E-3</v>
+      </c>
+      <c r="E62">
+        <f>'Time Taken'!E59</f>
+        <v>3.7967571428571438</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.14386525343055914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A63">
+        <f>'Time Taken'!A60</f>
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <f>'Time Taken'!B60</f>
+        <v>5.6424999999999997E-4</v>
+      </c>
+      <c r="C63">
+        <f>'Time Taken'!C60</f>
+        <v>0.59064285714285714</v>
+      </c>
+      <c r="D63">
+        <f>'Time Taken'!D60</f>
+        <v>4.14475E-3</v>
+      </c>
+      <c r="E63">
+        <f>'Time Taken'!E60</f>
+        <v>3.8317428571428578</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.15414470103123529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A64">
+        <f>'Time Taken'!A61</f>
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <f>'Time Taken'!B61</f>
+        <v>5.9279999999999999E-4</v>
+      </c>
+      <c r="C64">
+        <f>'Time Taken'!C61</f>
+        <v>0.6281714285714286</v>
+      </c>
+      <c r="D64">
+        <f>'Time Taken'!D61</f>
+        <v>4.0577E-3</v>
+      </c>
+      <c r="E64">
+        <f>'Time Taken'!E61</f>
+        <v>3.9680714285714291</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.15830648209817649</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <f>'Time Taken'!A62</f>
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <f>'Time Taken'!B62</f>
+        <v>6.8869999999999999E-4</v>
+      </c>
+      <c r="C65">
+        <f>'Time Taken'!C62</f>
+        <v>0.67201428571428579</v>
+      </c>
+      <c r="D65">
+        <f>'Time Taken'!D62</f>
+        <v>3.6430500000000001E-3</v>
+      </c>
+      <c r="E65">
+        <f>'Time Taken'!E62</f>
+        <v>4.0448428571428572</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0.16614101201176809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A66">
+        <f>'Time Taken'!A63</f>
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <f>'Time Taken'!B63</f>
+        <v>7.6550000000000001E-4</v>
+      </c>
+      <c r="C66">
+        <f>'Time Taken'!C63</f>
+        <v>0.71488571428571435</v>
+      </c>
+      <c r="D66">
+        <f>'Time Taken'!D63</f>
+        <v>3.7127499999999999E-3</v>
+      </c>
+      <c r="E66">
+        <f>'Time Taken'!E63</f>
+        <v>4.0251071428571432</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0.17760662981464556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A67">
+        <f>'Time Taken'!A64</f>
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <f>'Time Taken'!B64</f>
+        <v>7.5580000000000005E-4</v>
+      </c>
+      <c r="C67">
+        <f>'Time Taken'!C64</f>
+        <v>0.75286428571428587</v>
+      </c>
+      <c r="D67">
+        <f>'Time Taken'!D64</f>
+        <v>4.5465999999999996E-3</v>
+      </c>
+      <c r="E67">
+        <f>'Time Taken'!E64</f>
+        <v>3.9344285714285712</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>0.19135289205185002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A68">
+        <f>'Time Taken'!A65</f>
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <f>'Time Taken'!B65</f>
+        <v>8.1245000000000004E-4</v>
+      </c>
+      <c r="C68">
+        <f>'Time Taken'!C65</f>
+        <v>0.79195714285714292</v>
+      </c>
+      <c r="D68">
+        <f>'Time Taken'!D65</f>
+        <v>4.3549000000000001E-3</v>
+      </c>
+      <c r="E68">
+        <f>'Time Taken'!E65</f>
+        <v>3.9668928571428572</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>0.19964167709524369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A69">
+        <f>'Time Taken'!A66</f>
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <f>'Time Taken'!B66</f>
+        <v>8.2470000000000004E-4</v>
+      </c>
+      <c r="C69">
+        <f>'Time Taken'!C66</f>
+        <v>0.82152142857142851</v>
+      </c>
+      <c r="D69">
+        <f>'Time Taken'!D66</f>
+        <v>3.7160000000000001E-3</v>
+      </c>
+      <c r="E69">
+        <f>'Time Taken'!E66</f>
+        <v>3.958157142857142</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>0.20755149402138806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <f>'Time Taken'!A67</f>
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <f>'Time Taken'!B67</f>
+        <v>8.3009999999999996E-4</v>
+      </c>
+      <c r="C70">
+        <f>'Time Taken'!C67</f>
+        <v>0.84051428571428588</v>
+      </c>
+      <c r="D70">
+        <f>'Time Taken'!D67</f>
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E70">
+        <f>'Time Taken'!E67</f>
+        <v>3.987478571428571</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>0.21078841444736834</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A71">
+        <f>'Time Taken'!A68</f>
+        <v>67</v>
+      </c>
+      <c r="B71">
+        <f>'Time Taken'!B68</f>
+        <v>8.6644999999999995E-4</v>
+      </c>
+      <c r="C71">
+        <f>'Time Taken'!C68</f>
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="D71">
+        <f>'Time Taken'!D68</f>
+        <v>4.28495E-3</v>
+      </c>
+      <c r="E71">
+        <f>'Time Taken'!E68</f>
+        <v>3.8791428571428566</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>0.22419901303675338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A72">
+        <f>'Time Taken'!A69</f>
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <f>'Time Taken'!B69</f>
+        <v>8.9565000000000001E-4</v>
+      </c>
+      <c r="C72">
+        <f>'Time Taken'!C69</f>
+        <v>0.89677857142857142</v>
+      </c>
+      <c r="D72">
+        <f>'Time Taken'!D69</f>
+        <v>3.5818999999999998E-3</v>
+      </c>
+      <c r="E72">
+        <f>'Time Taken'!E69</f>
+        <v>3.8556857142857135</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>0.2325860139756501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A73">
+        <f>'Time Taken'!A70</f>
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <f>'Time Taken'!B70</f>
+        <v>8.9844999999999996E-4</v>
+      </c>
+      <c r="C73">
+        <f>'Time Taken'!C70</f>
+        <v>0.92401428571428568</v>
+      </c>
+      <c r="D73">
+        <f>'Time Taken'!D70</f>
+        <v>3.9179999999999996E-3</v>
+      </c>
+      <c r="E73">
+        <f>'Time Taken'!E70</f>
+        <v>3.8830285714285711</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>0.23796226803820289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A74">
+        <f>'Time Taken'!A71</f>
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <f>'Time Taken'!B71</f>
+        <v>9.6009999999999997E-4</v>
+      </c>
+      <c r="C74">
+        <f>'Time Taken'!C71</f>
+        <v>0.96014999999999984</v>
+      </c>
+      <c r="D74">
+        <f>'Time Taken'!D71</f>
+        <v>3.78825E-3</v>
+      </c>
+      <c r="E74">
+        <f>'Time Taken'!E71</f>
+        <v>4.0116285714285711</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ref="F74:F137" si="1" xml:space="preserve"> C74/E74</f>
+        <v>0.23934169948791725</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A75">
+        <f>'Time Taken'!A72</f>
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <f>'Time Taken'!B72</f>
+        <v>1.0020000000000001E-3</v>
+      </c>
+      <c r="C75">
+        <f>'Time Taken'!C72</f>
+        <v>0.99194999999999989</v>
+      </c>
+      <c r="D75">
+        <f>'Time Taken'!D72</f>
+        <v>4.1907000000000003E-3</v>
+      </c>
+      <c r="E75">
+        <f>'Time Taken'!E72</f>
+        <v>3.9122214285714287</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0.25355159929232746</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A76">
+        <f>'Time Taken'!A73</f>
+        <v>72</v>
+      </c>
+      <c r="B76">
+        <f>'Time Taken'!B73</f>
+        <v>1.0153499999999999E-3</v>
+      </c>
+      <c r="C76">
+        <f>'Time Taken'!C73</f>
+        <v>1.0304642857142858</v>
+      </c>
+      <c r="D76">
+        <f>'Time Taken'!D73</f>
+        <v>3.9074000000000001E-3</v>
+      </c>
+      <c r="E76">
+        <f>'Time Taken'!E73</f>
+        <v>3.9397214285714295</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0.26155765182817492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A77">
+        <f>'Time Taken'!A74</f>
+        <v>73</v>
+      </c>
+      <c r="B77">
+        <f>'Time Taken'!B74</f>
+        <v>1.0830499999999999E-3</v>
+      </c>
+      <c r="C77">
+        <f>'Time Taken'!C74</f>
+        <v>1.0708857142857142</v>
+      </c>
+      <c r="D77">
+        <f>'Time Taken'!D74</f>
+        <v>4.4102000000000004E-3</v>
+      </c>
+      <c r="E77">
+        <f>'Time Taken'!E74</f>
+        <v>3.9207642857142857</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0.2731318784420676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A78">
+        <f>'Time Taken'!A75</f>
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <f>'Time Taken'!B75</f>
+        <v>1.08905E-3</v>
+      </c>
+      <c r="C78">
+        <f>'Time Taken'!C75</f>
+        <v>1.1086071428571429</v>
+      </c>
+      <c r="D78">
+        <f>'Time Taken'!D75</f>
+        <v>3.5891E-3</v>
+      </c>
+      <c r="E78">
+        <f>'Time Taken'!E75</f>
+        <v>3.9625571428571429</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0.2797706387289593</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A79">
+        <f>'Time Taken'!A76</f>
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <f>'Time Taken'!B76</f>
+        <v>1.1652500000000001E-3</v>
+      </c>
+      <c r="C79">
+        <f>'Time Taken'!C76</f>
+        <v>1.1501428571428569</v>
+      </c>
+      <c r="D79">
+        <f>'Time Taken'!D76</f>
+        <v>3.7743999999999998E-3</v>
+      </c>
+      <c r="E79">
+        <f>'Time Taken'!E76</f>
+        <v>3.9029857142857147</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0.29468282523635742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A80">
+        <f>'Time Taken'!A77</f>
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <f>'Time Taken'!B77</f>
+        <v>1.1814E-3</v>
+      </c>
+      <c r="C80">
+        <f>'Time Taken'!C77</f>
+        <v>1.2136428571428575</v>
+      </c>
+      <c r="D80">
+        <f>'Time Taken'!D77</f>
+        <v>3.7853000000000001E-3</v>
+      </c>
+      <c r="E80">
+        <f>'Time Taken'!E77</f>
+        <v>3.8994428571428577</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0.31123493832452259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A81">
+        <f>'Time Taken'!A78</f>
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <f>'Time Taken'!B78</f>
+        <v>1.22415E-3</v>
+      </c>
+      <c r="C81">
+        <f>'Time Taken'!C78</f>
+        <v>1.2613857142857143</v>
+      </c>
+      <c r="D81">
+        <f>'Time Taken'!D78</f>
+        <v>4.0807999999999999E-3</v>
+      </c>
+      <c r="E81">
+        <f>'Time Taken'!E78</f>
+        <v>3.8466785714285714</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0.32791554866443223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A82">
+        <f>'Time Taken'!A79</f>
+        <v>78</v>
+      </c>
+      <c r="B82">
+        <f>'Time Taken'!B79</f>
+        <v>1.2927500000000001E-3</v>
+      </c>
+      <c r="C82">
+        <f>'Time Taken'!C79</f>
+        <v>1.3114000000000001</v>
+      </c>
+      <c r="D82">
+        <f>'Time Taken'!D79</f>
+        <v>3.7737000000000001E-3</v>
+      </c>
+      <c r="E82">
+        <f>'Time Taken'!E79</f>
+        <v>3.9041357142857143</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0.33590020838707674</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A83">
+        <f>'Time Taken'!A80</f>
+        <v>79</v>
+      </c>
+      <c r="B83">
+        <f>'Time Taken'!B80</f>
+        <v>1.4598499999999999E-3</v>
+      </c>
+      <c r="C83">
+        <f>'Time Taken'!C80</f>
+        <v>1.3563000000000001</v>
+      </c>
+      <c r="D83">
+        <f>'Time Taken'!D80</f>
+        <v>3.8825999999999999E-3</v>
+      </c>
+      <c r="E83">
+        <f>'Time Taken'!E80</f>
+        <v>3.9384357142857143</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>0.34437530491620133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A84">
+        <f>'Time Taken'!A81</f>
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <f>'Time Taken'!B81</f>
+        <v>1.4172500000000001E-3</v>
+      </c>
+      <c r="C84">
+        <f>'Time Taken'!C81</f>
+        <v>1.4106071428571427</v>
+      </c>
+      <c r="D84">
+        <f>'Time Taken'!D81</f>
+        <v>4.0408500000000003E-3</v>
+      </c>
+      <c r="E84">
+        <f>'Time Taken'!E81</f>
+        <v>4.003685714285715</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>0.35232714141969174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A85">
+        <f>'Time Taken'!A82</f>
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <f>'Time Taken'!B82</f>
+        <v>1.4391499999999999E-3</v>
+      </c>
+      <c r="C85">
+        <f>'Time Taken'!C82</f>
+        <v>1.4638357142857146</v>
+      </c>
+      <c r="D85">
+        <f>'Time Taken'!D82</f>
+        <v>3.9912999999999997E-3</v>
+      </c>
+      <c r="E85">
+        <f>'Time Taken'!E82</f>
+        <v>3.9975357142857146</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>0.36618452439449306</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A86">
+        <f>'Time Taken'!A83</f>
+        <v>82</v>
+      </c>
+      <c r="B86">
+        <f>'Time Taken'!B83</f>
+        <v>1.47955E-3</v>
+      </c>
+      <c r="C86">
+        <f>'Time Taken'!C83</f>
+        <v>1.5111714285714286</v>
+      </c>
+      <c r="D86">
+        <f>'Time Taken'!D83</f>
+        <v>4.0144999999999998E-3</v>
+      </c>
+      <c r="E86">
+        <f>'Time Taken'!E83</f>
+        <v>4.0474357142857142</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>0.37336514653899033</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A87">
+        <f>'Time Taken'!A84</f>
+        <v>83</v>
+      </c>
+      <c r="B87">
+        <f>'Time Taken'!B84</f>
+        <v>1.5615500000000001E-3</v>
+      </c>
+      <c r="C87">
+        <f>'Time Taken'!C84</f>
+        <v>1.5462857142857143</v>
+      </c>
+      <c r="D87">
+        <f>'Time Taken'!D84</f>
+        <v>4.2420499999999998E-3</v>
+      </c>
+      <c r="E87">
+        <f>'Time Taken'!E84</f>
+        <v>4.0887499999999992</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>0.37818054767000048</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A88">
+        <f>'Time Taken'!A85</f>
+        <v>84</v>
+      </c>
+      <c r="B88">
+        <f>'Time Taken'!B85</f>
+        <v>1.5967500000000001E-3</v>
+      </c>
+      <c r="C88">
+        <f>'Time Taken'!C85</f>
+        <v>1.5952071428571428</v>
+      </c>
+      <c r="D88">
+        <f>'Time Taken'!D85</f>
+        <v>4.0377499999999997E-3</v>
+      </c>
+      <c r="E88">
+        <f>'Time Taken'!E85</f>
+        <v>4.1206000000000005</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>0.38712982159324921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A89">
+        <f>'Time Taken'!A86</f>
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <f>'Time Taken'!B86</f>
+        <v>1.6241000000000001E-3</v>
+      </c>
+      <c r="C89">
+        <f>'Time Taken'!C86</f>
+        <v>1.6528642857142857</v>
+      </c>
+      <c r="D89">
+        <f>'Time Taken'!D86</f>
+        <v>4.1229999999999999E-3</v>
+      </c>
+      <c r="E89">
+        <f>'Time Taken'!E86</f>
+        <v>4.0762714285714283</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>0.4054843536985831</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A90">
+        <f>'Time Taken'!A87</f>
+        <v>86</v>
+      </c>
+      <c r="B90">
+        <f>'Time Taken'!B87</f>
+        <v>1.70565E-3</v>
+      </c>
+      <c r="C90">
+        <f>'Time Taken'!C87</f>
+        <v>1.7112214285714287</v>
+      </c>
+      <c r="D90">
+        <f>'Time Taken'!D87</f>
+        <v>4.1717999999999998E-3</v>
+      </c>
+      <c r="E90">
+        <f>'Time Taken'!E87</f>
+        <v>4.0416357142857136</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>0.42339823515585107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A91">
+        <f>'Time Taken'!A88</f>
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <f>'Time Taken'!B88</f>
+        <v>1.7596999999999999E-3</v>
+      </c>
+      <c r="C91">
+        <f>'Time Taken'!C88</f>
+        <v>1.7617071428571429</v>
+      </c>
+      <c r="D91">
+        <f>'Time Taken'!D88</f>
+        <v>4.2637999999999999E-3</v>
+      </c>
+      <c r="E91">
+        <f>'Time Taken'!E88</f>
+        <v>3.9817928571428571</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>0.44244068088495669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A92">
+        <f>'Time Taken'!A89</f>
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <f>'Time Taken'!B89</f>
+        <v>1.84275E-3</v>
+      </c>
+      <c r="C92">
+        <f>'Time Taken'!C89</f>
+        <v>1.8143</v>
+      </c>
+      <c r="D92">
+        <f>'Time Taken'!D89</f>
+        <v>3.6809999999999998E-3</v>
+      </c>
+      <c r="E92">
+        <f>'Time Taken'!E89</f>
+        <v>4.0032214285714289</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>0.45321000408599499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A93">
+        <f>'Time Taken'!A90</f>
+        <v>89</v>
+      </c>
+      <c r="B93">
+        <f>'Time Taken'!B90</f>
+        <v>1.8880500000000001E-3</v>
+      </c>
+      <c r="C93">
+        <f>'Time Taken'!C90</f>
+        <v>1.8756214285714288</v>
+      </c>
+      <c r="D93">
+        <f>'Time Taken'!D90</f>
+        <v>3.7720499999999999E-3</v>
+      </c>
+      <c r="E93">
+        <f>'Time Taken'!E90</f>
+        <v>3.9994357142857146</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>0.4689715156245256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A94">
+        <f>'Time Taken'!A91</f>
+        <v>90</v>
+      </c>
+      <c r="B94">
+        <f>'Time Taken'!B91</f>
+        <v>1.9149499999999999E-3</v>
+      </c>
+      <c r="C94">
+        <f>'Time Taken'!C91</f>
+        <v>1.9598142857142857</v>
+      </c>
+      <c r="D94">
+        <f>'Time Taken'!D91</f>
+        <v>3.82315E-3</v>
+      </c>
+      <c r="E94">
+        <f>'Time Taken'!E91</f>
+        <v>3.9974571428571433</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>0.49026524004545741</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A95">
+        <f>'Time Taken'!A92</f>
+        <v>91</v>
+      </c>
+      <c r="B95">
+        <f>'Time Taken'!B92</f>
+        <v>1.9648999999999999E-3</v>
+      </c>
+      <c r="C95">
+        <f>'Time Taken'!C92</f>
+        <v>2.0235857142857143</v>
+      </c>
+      <c r="D95">
+        <f>'Time Taken'!D92</f>
+        <v>4.1877499999999996E-3</v>
+      </c>
+      <c r="E95">
+        <f>'Time Taken'!E92</f>
+        <v>3.9764928571428575</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>0.50888704870946933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A96">
+        <f>'Time Taken'!A93</f>
+        <v>92</v>
+      </c>
+      <c r="B96">
+        <f>'Time Taken'!B93</f>
+        <v>2.0533499999999998E-3</v>
+      </c>
+      <c r="C96">
+        <f>'Time Taken'!C93</f>
+        <v>2.0799071428571425</v>
+      </c>
+      <c r="D96">
+        <f>'Time Taken'!D93</f>
+        <v>4.0965000000000003E-3</v>
+      </c>
+      <c r="E96">
+        <f>'Time Taken'!E93</f>
+        <v>4.0471214285714279</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>0.51392259401302864</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A97">
+        <f>'Time Taken'!A94</f>
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <f>'Time Taken'!B94</f>
+        <v>2.2950000000000002E-3</v>
+      </c>
+      <c r="C97">
+        <f>'Time Taken'!C94</f>
+        <v>2.1381142857142854</v>
+      </c>
+      <c r="D97">
+        <f>'Time Taken'!D94</f>
+        <v>4.1579499999999997E-3</v>
+      </c>
+      <c r="E97">
+        <f>'Time Taken'!E94</f>
+        <v>4.0747642857142861</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>0.52472097421936748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A98">
+        <f>'Time Taken'!A95</f>
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <f>'Time Taken'!B95</f>
+        <v>2.2060999999999999E-3</v>
+      </c>
+      <c r="C98">
+        <f>'Time Taken'!C95</f>
+        <v>2.2105285714285707</v>
+      </c>
+      <c r="D98">
+        <f>'Time Taken'!D95</f>
+        <v>4.1170499999999997E-3</v>
+      </c>
+      <c r="E98">
+        <f>'Time Taken'!E95</f>
+        <v>4.1219571428571431</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>0.53628130880961522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A99">
+        <f>'Time Taken'!A96</f>
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <f>'Time Taken'!B96</f>
+        <v>2.2369999999999998E-3</v>
+      </c>
+      <c r="C99">
+        <f>'Time Taken'!C96</f>
+        <v>2.2893642857142855</v>
+      </c>
+      <c r="D99">
+        <f>'Time Taken'!D96</f>
+        <v>4.1754000000000001E-3</v>
+      </c>
+      <c r="E99">
+        <f>'Time Taken'!E96</f>
+        <v>4.0746285714285726</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>0.56185839901270562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A100">
+        <f>'Time Taken'!A97</f>
+        <v>96</v>
+      </c>
+      <c r="B100">
+        <f>'Time Taken'!B97</f>
+        <v>2.2954999999999998E-3</v>
+      </c>
+      <c r="C100">
+        <f>'Time Taken'!C97</f>
+        <v>2.3735142857142857</v>
+      </c>
+      <c r="D100">
+        <f>'Time Taken'!D97</f>
+        <v>3.96555E-3</v>
+      </c>
+      <c r="E100">
+        <f>'Time Taken'!E97</f>
+        <v>4.0915999999999997</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>0.58009440945211799</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A101">
+        <f>'Time Taken'!A98</f>
+        <v>97</v>
+      </c>
+      <c r="B101">
+        <f>'Time Taken'!B98</f>
+        <v>2.4218500000000001E-3</v>
+      </c>
+      <c r="C101">
+        <f>'Time Taken'!C98</f>
+        <v>2.4212785714285712</v>
+      </c>
+      <c r="D101">
+        <f>'Time Taken'!D98</f>
+        <v>4.1535000000000001E-3</v>
+      </c>
+      <c r="E101">
+        <f>'Time Taken'!E98</f>
+        <v>4.0587428571428568</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>0.59655875147829029</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A102">
+        <f>'Time Taken'!A99</f>
+        <v>98</v>
+      </c>
+      <c r="B102">
+        <f>'Time Taken'!B99</f>
+        <v>2.5167499999999999E-3</v>
+      </c>
+      <c r="C102">
+        <f>'Time Taken'!C99</f>
+        <v>2.4974071428571429</v>
+      </c>
+      <c r="D102">
+        <f>'Time Taken'!D99</f>
+        <v>3.85645E-3</v>
+      </c>
+      <c r="E102">
+        <f>'Time Taken'!E99</f>
+        <v>4.0320428571428568</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>0.61939002915927066</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A103">
+        <f>'Time Taken'!A100</f>
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <f>'Time Taken'!B100</f>
+        <v>2.6424E-3</v>
+      </c>
+      <c r="C103">
+        <f>'Time Taken'!C100</f>
+        <v>2.5998214285714285</v>
+      </c>
+      <c r="D103">
+        <f>'Time Taken'!D100</f>
+        <v>4.2152999999999999E-3</v>
+      </c>
+      <c r="E103">
+        <f>'Time Taken'!E100</f>
+        <v>4.0173857142857141</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>0.64714259806483965</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A104">
+        <f>'Time Taken'!A101</f>
+        <v>100</v>
+      </c>
+      <c r="B104">
+        <f>'Time Taken'!B101</f>
+        <v>2.6293499999999999E-3</v>
+      </c>
+      <c r="C104">
+        <f>'Time Taken'!C101</f>
+        <v>2.7226642857142855</v>
+      </c>
+      <c r="D104">
+        <f>'Time Taken'!D101</f>
+        <v>3.9279500000000004E-3</v>
+      </c>
+      <c r="E104">
+        <f>'Time Taken'!E101</f>
+        <v>4.0977000000000006</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>0.66443719298979553</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A105">
+        <f>'Time Taken'!A102</f>
+        <v>101</v>
+      </c>
+      <c r="B105">
+        <f>'Time Taken'!B102</f>
+        <v>2.7390000000000001E-3</v>
+      </c>
+      <c r="C105">
+        <f>'Time Taken'!C102</f>
+        <v>2.8235857142857141</v>
+      </c>
+      <c r="D105">
+        <f>'Time Taken'!D102</f>
+        <v>3.9301500000000003E-3</v>
+      </c>
+      <c r="E105">
+        <f>'Time Taken'!E102</f>
+        <v>4.0789714285714282</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>0.69222983385167136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A106">
+        <f>'Time Taken'!A103</f>
+        <v>102</v>
+      </c>
+      <c r="B106">
+        <f>'Time Taken'!B103</f>
+        <v>2.9539000000000002E-3</v>
+      </c>
+      <c r="C106">
+        <f>'Time Taken'!C103</f>
+        <v>2.8990428571428577</v>
+      </c>
+      <c r="D106">
+        <f>'Time Taken'!D103</f>
+        <v>4.0727999999999997E-3</v>
+      </c>
+      <c r="E106">
+        <f>'Time Taken'!E103</f>
+        <v>4.2158857142857142</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>0.68764740166445293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A107">
+        <f>'Time Taken'!A104</f>
+        <v>103</v>
+      </c>
+      <c r="B107">
+        <f>'Time Taken'!B104</f>
+        <v>3.1554E-3</v>
+      </c>
+      <c r="C107">
+        <f>'Time Taken'!C104</f>
+        <v>2.9714071428571427</v>
+      </c>
+      <c r="D107">
+        <f>'Time Taken'!D104</f>
+        <v>4.5277499999999997E-3</v>
+      </c>
+      <c r="E107">
+        <f>'Time Taken'!E104</f>
+        <v>4.250735714285713</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>0.69903361266873143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A108">
+        <f>'Time Taken'!A105</f>
+        <v>104</v>
+      </c>
+      <c r="B108">
+        <f>'Time Taken'!B105</f>
+        <v>3.1283000000000001E-3</v>
+      </c>
+      <c r="C108">
+        <f>'Time Taken'!C105</f>
+        <v>3.0514785714285715</v>
+      </c>
+      <c r="D108">
+        <f>'Time Taken'!D105</f>
+        <v>4.0223999999999998E-3</v>
+      </c>
+      <c r="E108">
+        <f>'Time Taken'!E105</f>
+        <v>4.3213714285714273</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>0.70613661007087714</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A109">
+        <f>'Time Taken'!A106</f>
+        <v>105</v>
+      </c>
+      <c r="B109">
+        <f>'Time Taken'!B106</f>
+        <v>3.0449499999999998E-3</v>
+      </c>
+      <c r="C109">
+        <f>'Time Taken'!C106</f>
+        <v>3.1336500000000003</v>
+      </c>
+      <c r="D109">
+        <f>'Time Taken'!D106</f>
+        <v>4.8148499999999999E-3</v>
+      </c>
+      <c r="E109">
+        <f>'Time Taken'!E106</f>
+        <v>4.3747928571428565</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>0.71629677160224747</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A110">
+        <f>'Time Taken'!A107</f>
+        <v>106</v>
+      </c>
+      <c r="B110">
+        <f>'Time Taken'!B107</f>
+        <v>3.1489500000000002E-3</v>
+      </c>
+      <c r="C110">
+        <f>'Time Taken'!C107</f>
+        <v>3.1917428571428572</v>
+      </c>
+      <c r="D110">
+        <f>'Time Taken'!D107</f>
+        <v>4.4592499999999997E-3</v>
+      </c>
+      <c r="E110">
+        <f>'Time Taken'!E107</f>
+        <v>4.4264357142857138</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>0.72106386789758292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A111">
+        <f>'Time Taken'!A108</f>
+        <v>107</v>
+      </c>
+      <c r="B111">
+        <f>'Time Taken'!B108</f>
+        <v>3.1898500000000002E-3</v>
+      </c>
+      <c r="C111">
+        <f>'Time Taken'!C108</f>
+        <v>3.2828142857142852</v>
+      </c>
+      <c r="D111">
+        <f>'Time Taken'!D108</f>
+        <v>4.4223999999999999E-3</v>
+      </c>
+      <c r="E111">
+        <f>'Time Taken'!E108</f>
+        <v>4.4482714285714291</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>0.73799774551270303</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A112">
+        <f>'Time Taken'!A109</f>
+        <v>108</v>
+      </c>
+      <c r="B112">
+        <f>'Time Taken'!B109</f>
+        <v>3.3141999999999998E-3</v>
+      </c>
+      <c r="C112">
+        <f>'Time Taken'!C109</f>
+        <v>3.3742285714285711</v>
+      </c>
+      <c r="D112">
+        <f>'Time Taken'!D109</f>
+        <v>4.3040999999999999E-3</v>
+      </c>
+      <c r="E112">
+        <f>'Time Taken'!E109</f>
+        <v>4.4798500000000008</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>0.75320123919965409</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A113">
+        <f>'Time Taken'!A110</f>
+        <v>109</v>
+      </c>
+      <c r="B113">
+        <f>'Time Taken'!B110</f>
+        <v>3.3605499999999999E-3</v>
+      </c>
+      <c r="C113">
+        <f>'Time Taken'!C110</f>
+        <v>3.4925928571428573</v>
+      </c>
+      <c r="D113">
+        <f>'Time Taken'!D110</f>
+        <v>4.4343000000000004E-3</v>
+      </c>
+      <c r="E113">
+        <f>'Time Taken'!E110</f>
+        <v>4.3987214285714282</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>0.79400182845339806</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A114">
+        <f>'Time Taken'!A111</f>
+        <v>110</v>
+      </c>
+      <c r="B114">
+        <f>'Time Taken'!B111</f>
+        <v>3.7929000000000001E-3</v>
+      </c>
+      <c r="C114">
+        <f>'Time Taken'!C111</f>
+        <v>3.6098142857142852</v>
+      </c>
+      <c r="D114">
+        <f>'Time Taken'!D111</f>
+        <v>4.6806E-3</v>
+      </c>
+      <c r="E114">
+        <f>'Time Taken'!E111</f>
+        <v>4.4276214285714293</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>0.81529424860494248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A115">
+        <f>'Time Taken'!A112</f>
+        <v>111</v>
+      </c>
+      <c r="B115">
+        <f>'Time Taken'!B112</f>
+        <v>3.7682000000000002E-3</v>
+      </c>
+      <c r="C115">
+        <f>'Time Taken'!C112</f>
+        <v>3.7285785714285717</v>
+      </c>
+      <c r="D115">
+        <f>'Time Taken'!D112</f>
+        <v>4.2434500000000002E-3</v>
+      </c>
+      <c r="E115">
+        <f>'Time Taken'!E112</f>
+        <v>4.3853500000000007</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>0.85023511724915257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A116">
+        <f>'Time Taken'!A113</f>
+        <v>112</v>
+      </c>
+      <c r="B116">
+        <f>'Time Taken'!B113</f>
+        <v>3.8735000000000002E-3</v>
+      </c>
+      <c r="C116">
+        <f>'Time Taken'!C113</f>
+        <v>3.8402214285714287</v>
+      </c>
+      <c r="D116">
+        <f>'Time Taken'!D113</f>
+        <v>4.2469500000000002E-3</v>
+      </c>
+      <c r="E116">
+        <f>'Time Taken'!E113</f>
+        <v>4.3887071428571431</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>0.87502339608638402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A117">
+        <f>'Time Taken'!A114</f>
+        <v>113</v>
+      </c>
+      <c r="B117">
+        <f>'Time Taken'!B114</f>
+        <v>3.9694999999999999E-3</v>
+      </c>
+      <c r="C117">
+        <f>'Time Taken'!C114</f>
+        <v>3.968871428571429</v>
+      </c>
+      <c r="D117">
+        <f>'Time Taken'!D114</f>
+        <v>4.6615500000000004E-3</v>
+      </c>
+      <c r="E117">
+        <f>'Time Taken'!E114</f>
+        <v>4.3804142857142851</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>0.90604932997205112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A118">
+        <f>'Time Taken'!A115</f>
+        <v>114</v>
+      </c>
+      <c r="B118">
+        <f>'Time Taken'!B115</f>
+        <v>4.0211999999999999E-3</v>
+      </c>
+      <c r="C118">
+        <f>'Time Taken'!C115</f>
+        <v>4.0547071428571426</v>
+      </c>
+      <c r="D118">
+        <f>'Time Taken'!D115</f>
+        <v>4.1265E-3</v>
+      </c>
+      <c r="E118">
+        <f>'Time Taken'!E115</f>
+        <v>4.3746142857142853</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>0.92687192013663244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A119">
+        <f>'Time Taken'!A116</f>
+        <v>115</v>
+      </c>
+      <c r="B119">
+        <f>'Time Taken'!B116</f>
+        <v>4.0956999999999999E-3</v>
+      </c>
+      <c r="C119">
+        <f>'Time Taken'!C116</f>
+        <v>4.1690357142857133</v>
+      </c>
+      <c r="D119">
+        <f>'Time Taken'!D116</f>
+        <v>4.3276E-3</v>
+      </c>
+      <c r="E119">
+        <f>'Time Taken'!E116</f>
+        <v>4.3557285714285712</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>0.95713854661021103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A120">
+        <f>'Time Taken'!A117</f>
+        <v>116</v>
+      </c>
+      <c r="B120">
+        <f>'Time Taken'!B117</f>
+        <v>4.2611000000000003E-3</v>
+      </c>
+      <c r="C120">
+        <f>'Time Taken'!C117</f>
+        <v>4.2787928571428573</v>
+      </c>
+      <c r="D120">
+        <f>'Time Taken'!D117</f>
+        <v>4.3762499999999999E-3</v>
+      </c>
+      <c r="E120">
+        <f>'Time Taken'!E117</f>
+        <v>4.3651857142857136</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>0.98020866400709528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A121">
+        <f>'Time Taken'!A118</f>
+        <v>117</v>
+      </c>
+      <c r="B121">
+        <f>'Time Taken'!B118</f>
+        <v>4.3937500000000001E-3</v>
+      </c>
+      <c r="C121">
+        <f>'Time Taken'!C118</f>
+        <v>4.3826999999999998</v>
+      </c>
+      <c r="D121">
+        <f>'Time Taken'!D118</f>
+        <v>4.64E-3</v>
+      </c>
+      <c r="E121">
+        <f>'Time Taken'!E118</f>
+        <v>4.2956214285714287</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>1.0202714724461952</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A122">
+        <f>'Time Taken'!A119</f>
+        <v>118</v>
+      </c>
+      <c r="B122">
+        <f>'Time Taken'!B119</f>
+        <v>4.5684999999999996E-3</v>
+      </c>
+      <c r="C122">
+        <f>'Time Taken'!C119</f>
+        <v>4.5223500000000003</v>
+      </c>
+      <c r="D122">
+        <f>'Time Taken'!D119</f>
+        <v>4.1112500000000003E-3</v>
+      </c>
+      <c r="E122">
+        <f>'Time Taken'!E119</f>
+        <v>4.3329000000000004</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>1.0437236031295436</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A123">
+        <f>'Time Taken'!A120</f>
+        <v>119</v>
+      </c>
+      <c r="B123">
+        <f>'Time Taken'!B120</f>
+        <v>4.6417999999999997E-3</v>
+      </c>
+      <c r="C123">
+        <f>'Time Taken'!C120</f>
+        <v>4.6369142857142851</v>
+      </c>
+      <c r="D123">
+        <f>'Time Taken'!D120</f>
+        <v>4.31315E-3</v>
+      </c>
+      <c r="E123">
+        <f>'Time Taken'!E120</f>
+        <v>4.3136928571428577</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>1.0749291707304147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A124">
+        <f>'Time Taken'!A121</f>
+        <v>120</v>
+      </c>
+      <c r="B124">
+        <f>'Time Taken'!B121</f>
+        <v>4.6968499999999998E-3</v>
+      </c>
+      <c r="C124">
+        <f>'Time Taken'!C121</f>
+        <v>4.7295857142857143</v>
+      </c>
+      <c r="D124">
+        <f>'Time Taken'!D121</f>
+        <v>4.1745999999999997E-3</v>
+      </c>
+      <c r="E124">
+        <f>'Time Taken'!E121</f>
+        <v>4.3014571428571431</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>1.0995310559212492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A125">
+        <f>'Time Taken'!A122</f>
+        <v>121</v>
+      </c>
+      <c r="B125">
+        <f>'Time Taken'!B122</f>
+        <v>4.9987499999999997E-3</v>
+      </c>
+      <c r="C125">
+        <f>'Time Taken'!C122</f>
+        <v>4.8411499999999998</v>
+      </c>
+      <c r="D125">
+        <f>'Time Taken'!D122</f>
+        <v>4.3874500000000002E-3</v>
+      </c>
+      <c r="E125">
+        <f>'Time Taken'!E122</f>
+        <v>4.2761285714285711</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>1.132133872762078</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A126">
+        <f>'Time Taken'!A123</f>
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <f>'Time Taken'!B123</f>
+        <v>4.8976499999999999E-3</v>
+      </c>
+      <c r="C126">
+        <f>'Time Taken'!C123</f>
+        <v>4.9595071428571433</v>
+      </c>
+      <c r="D126">
+        <f>'Time Taken'!D123</f>
+        <v>4.1931499999999997E-3</v>
+      </c>
+      <c r="E126">
+        <f>'Time Taken'!E123</f>
+        <v>4.3284428571428579</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>1.1457947595803175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A127">
+        <f>'Time Taken'!A124</f>
+        <v>123</v>
+      </c>
+      <c r="B127">
+        <f>'Time Taken'!B124</f>
+        <v>4.9097999999999998E-3</v>
+      </c>
+      <c r="C127">
+        <f>'Time Taken'!C124</f>
+        <v>5.0753571428571425</v>
+      </c>
+      <c r="D127">
+        <f>'Time Taken'!D124</f>
+        <v>4.2906000000000003E-3</v>
+      </c>
+      <c r="E127">
+        <f>'Time Taken'!E124</f>
+        <v>4.3029000000000002</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>1.1795201243015507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A128">
+        <f>'Time Taken'!A125</f>
+        <v>124</v>
+      </c>
+      <c r="B128">
+        <f>'Time Taken'!B125</f>
+        <v>5.1747E-3</v>
+      </c>
+      <c r="C128">
+        <f>'Time Taken'!C125</f>
+        <v>5.2205642857142855</v>
+      </c>
+      <c r="D128">
+        <f>'Time Taken'!D125</f>
+        <v>4.4627E-3</v>
+      </c>
+      <c r="E128">
+        <f>'Time Taken'!E125</f>
+        <v>4.3377714285714291</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>1.2035129954815507</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A129">
+        <f>'Time Taken'!A126</f>
+        <v>125</v>
+      </c>
+      <c r="B129">
+        <f>'Time Taken'!B126</f>
+        <v>5.3969999999999999E-3</v>
+      </c>
+      <c r="C129">
+        <f>'Time Taken'!C126</f>
+        <v>5.4749071428571421</v>
+      </c>
+      <c r="D129">
+        <f>'Time Taken'!D126</f>
+        <v>4.47745E-3</v>
+      </c>
+      <c r="E129">
+        <f>'Time Taken'!E126</f>
+        <v>4.3074357142857149</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>1.2710362976978344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A130">
+        <f>'Time Taken'!A127</f>
+        <v>126</v>
+      </c>
+      <c r="B130">
+        <f>'Time Taken'!B127</f>
+        <v>5.4527500000000001E-3</v>
+      </c>
+      <c r="C130">
+        <f>'Time Taken'!C127</f>
+        <v>5.6176785714285709</v>
+      </c>
+      <c r="D130">
+        <f>'Time Taken'!D127</f>
+        <v>4.1343500000000002E-3</v>
+      </c>
+      <c r="E130">
+        <f>'Time Taken'!E127</f>
+        <v>4.2990857142857148</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>1.3067147167504052</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A131">
+        <f>'Time Taken'!A128</f>
+        <v>127</v>
+      </c>
+      <c r="B131">
+        <f>'Time Taken'!B128</f>
+        <v>5.7133000000000001E-3</v>
+      </c>
+      <c r="C131">
+        <f>'Time Taken'!C128</f>
+        <v>5.8089500000000003</v>
+      </c>
+      <c r="D131">
+        <f>'Time Taken'!D128</f>
+        <v>4.4187000000000002E-3</v>
+      </c>
+      <c r="E131">
+        <f>'Time Taken'!E128</f>
+        <v>4.3030999999999997</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="1"/>
+        <v>1.3499453882085011</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A132">
+        <f>'Time Taken'!A129</f>
+        <v>128</v>
+      </c>
+      <c r="B132">
+        <f>'Time Taken'!B129</f>
+        <v>6.7791500000000003E-3</v>
+      </c>
+      <c r="C132">
+        <f>'Time Taken'!C129</f>
+        <v>5.9679285714285726</v>
+      </c>
+      <c r="D132">
+        <f>'Time Taken'!D129</f>
+        <v>4.1751000000000002E-3</v>
+      </c>
+      <c r="E132">
+        <f>'Time Taken'!E129</f>
+        <v>4.296785714285714</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="1"/>
+        <v>1.3889286011137898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A133">
+        <f>'Time Taken'!A130</f>
+        <v>129</v>
+      </c>
+      <c r="B133">
+        <f>'Time Taken'!B130</f>
+        <v>5.89705E-3</v>
+      </c>
+      <c r="C133">
+        <f>'Time Taken'!C130</f>
+        <v>6.0885857142857143</v>
+      </c>
+      <c r="D133">
+        <f>'Time Taken'!D130</f>
+        <v>4.1346999999999998E-3</v>
+      </c>
+      <c r="E133">
+        <f>'Time Taken'!E130</f>
+        <v>4.2917785714285719</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="1"/>
+        <v>1.4186625924317089</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A134">
+        <f>'Time Taken'!A131</f>
+        <v>130</v>
+      </c>
+      <c r="B134">
+        <f>'Time Taken'!B131</f>
+        <v>6.2487000000000003E-3</v>
+      </c>
+      <c r="C134">
+        <f>'Time Taken'!C131</f>
+        <v>6.2721785714285714</v>
+      </c>
+      <c r="D134">
+        <f>'Time Taken'!D131</f>
+        <v>4.3187E-3</v>
+      </c>
+      <c r="E134">
+        <f>'Time Taken'!E131</f>
+        <v>4.3150071428571426</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="1"/>
+        <v>1.4535731607794062</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A135">
+        <f>'Time Taken'!A132</f>
+        <v>131</v>
+      </c>
+      <c r="B135">
+        <f>'Time Taken'!B132</f>
+        <v>6.2875500000000003E-3</v>
+      </c>
+      <c r="C135">
+        <f>'Time Taken'!C132</f>
+        <v>6.5522142857142853</v>
+      </c>
+      <c r="D135">
+        <f>'Time Taken'!D132</f>
+        <v>4.4184999999999997E-3</v>
+      </c>
+      <c r="E135">
+        <f>'Time Taken'!E132</f>
+        <v>4.2754785714285708</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="1"/>
+        <v>1.532510145063126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A136">
+        <f>'Time Taken'!A133</f>
+        <v>132</v>
+      </c>
+      <c r="B136">
+        <f>'Time Taken'!B133</f>
+        <v>6.2415999999999999E-3</v>
+      </c>
+      <c r="C136">
+        <f>'Time Taken'!C133</f>
+        <v>6.6209285714285713</v>
+      </c>
+      <c r="D136">
+        <f>'Time Taken'!D133</f>
+        <v>4.4424E-3</v>
+      </c>
+      <c r="E136">
+        <f>'Time Taken'!E133</f>
+        <v>4.3466499999999995</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="1"/>
+        <v>1.5232256039544412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A137">
+        <f>'Time Taken'!A134</f>
+        <v>133</v>
+      </c>
+      <c r="B137">
+        <f>'Time Taken'!B134</f>
+        <v>6.7378999999999998E-3</v>
+      </c>
+      <c r="C137">
+        <f>'Time Taken'!C134</f>
+        <v>6.8937857142857144</v>
+      </c>
+      <c r="D137">
+        <f>'Time Taken'!D134</f>
+        <v>4.2969499999999999E-3</v>
+      </c>
+      <c r="E137">
+        <f>'Time Taken'!E134</f>
+        <v>4.3872571428571421</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="1"/>
+        <v>1.5713201870351801</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A138">
+        <f>'Time Taken'!A135</f>
+        <v>134</v>
+      </c>
+      <c r="B138">
+        <f>'Time Taken'!B135</f>
+        <v>7.6735500000000003E-3</v>
+      </c>
+      <c r="C138">
+        <f>'Time Taken'!C135</f>
+        <v>7.1156928571428573</v>
+      </c>
+      <c r="D138">
+        <f>'Time Taken'!D135</f>
+        <v>4.1419999999999998E-3</v>
+      </c>
+      <c r="E138">
+        <f>'Time Taken'!E135</f>
+        <v>4.3987142857142851</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ref="F138:F201" si="2" xml:space="preserve"> C138/E138</f>
+        <v>1.6176756194992046</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A139">
+        <f>'Time Taken'!A136</f>
+        <v>135</v>
+      </c>
+      <c r="B139">
+        <f>'Time Taken'!B136</f>
+        <v>7.2601499999999999E-3</v>
+      </c>
+      <c r="C139">
+        <f>'Time Taken'!C136</f>
+        <v>7.2130642857142853</v>
+      </c>
+      <c r="D139">
+        <f>'Time Taken'!D136</f>
+        <v>4.6733E-3</v>
+      </c>
+      <c r="E139">
+        <f>'Time Taken'!E136</f>
+        <v>4.3828285714285711</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>1.6457555133996962</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A140">
+        <f>'Time Taken'!A137</f>
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <f>'Time Taken'!B137</f>
+        <v>7.8070500000000003E-3</v>
+      </c>
+      <c r="C140">
+        <f>'Time Taken'!C137</f>
+        <v>7.3602142857142852</v>
+      </c>
+      <c r="D140">
+        <f>'Time Taken'!D137</f>
+        <v>4.4189499999999996E-3</v>
+      </c>
+      <c r="E140">
+        <f>'Time Taken'!E137</f>
+        <v>4.4118285714285719</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>1.668291087595684</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A141">
+        <f>'Time Taken'!A138</f>
+        <v>137</v>
+      </c>
+      <c r="B141">
+        <f>'Time Taken'!B138</f>
+        <v>7.8020499999999996E-3</v>
+      </c>
+      <c r="C141">
+        <f>'Time Taken'!C138</f>
+        <v>7.5332642857142851</v>
+      </c>
+      <c r="D141">
+        <f>'Time Taken'!D138</f>
+        <v>4.3988999999999999E-3</v>
+      </c>
+      <c r="E141">
+        <f>'Time Taken'!E138</f>
+        <v>4.4035000000000002</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>1.710744699832925</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A142">
+        <f>'Time Taken'!A139</f>
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <f>'Time Taken'!B139</f>
+        <v>6.9691500000000003E-3</v>
+      </c>
+      <c r="C142">
+        <f>'Time Taken'!C139</f>
+        <v>7.5128714285714278</v>
+      </c>
+      <c r="D142">
+        <f>'Time Taken'!D139</f>
+        <v>4.3073E-3</v>
+      </c>
+      <c r="E142">
+        <f>'Time Taken'!E139</f>
+        <v>4.4197928571428573</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>1.6998243291944837</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A143">
+        <f>'Time Taken'!A140</f>
+        <v>139</v>
+      </c>
+      <c r="B143">
+        <f>'Time Taken'!B140</f>
+        <v>7.2716500000000002E-3</v>
+      </c>
+      <c r="C143">
+        <f>'Time Taken'!C140</f>
+        <v>7.587364285714286</v>
+      </c>
+      <c r="D143">
+        <f>'Time Taken'!D140</f>
+        <v>4.6454000000000001E-3</v>
+      </c>
+      <c r="E143">
+        <f>'Time Taken'!E140</f>
+        <v>4.3965857142857141</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>1.7257401035218889</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A144">
+        <f>'Time Taken'!A141</f>
+        <v>140</v>
+      </c>
+      <c r="B144">
+        <f>'Time Taken'!B141</f>
+        <v>7.9492499999999997E-3</v>
+      </c>
+      <c r="C144">
+        <f>'Time Taken'!C141</f>
+        <v>7.6311571428571421</v>
+      </c>
+      <c r="D144">
+        <f>'Time Taken'!D141</f>
+        <v>4.2386500000000001E-3</v>
+      </c>
+      <c r="E144">
+        <f>'Time Taken'!E141</f>
+        <v>4.3913214285714295</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>1.73778150084989</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A145">
+        <f>'Time Taken'!A142</f>
+        <v>141</v>
+      </c>
+      <c r="B145">
+        <f>'Time Taken'!B142</f>
+        <v>7.5307999999999998E-3</v>
+      </c>
+      <c r="C145">
+        <f>'Time Taken'!C142</f>
+        <v>7.7523714285714291</v>
+      </c>
+      <c r="D145">
+        <f>'Time Taken'!D142</f>
+        <v>4.2560499999999999E-3</v>
+      </c>
+      <c r="E145">
+        <f>'Time Taken'!E142</f>
+        <v>4.3830214285714284</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>1.7687277041440757</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A146">
+        <f>'Time Taken'!A143</f>
+        <v>142</v>
+      </c>
+      <c r="B146">
+        <f>'Time Taken'!B143</f>
+        <v>7.7815999999999996E-3</v>
+      </c>
+      <c r="C146">
+        <f>'Time Taken'!C143</f>
+        <v>7.9854857142857147</v>
+      </c>
+      <c r="D146">
+        <f>'Time Taken'!D143</f>
+        <v>4.5108500000000003E-3</v>
+      </c>
+      <c r="E146">
+        <f>'Time Taken'!E143</f>
+        <v>4.3991285714285713</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>1.8152426292220214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A147">
+        <f>'Time Taken'!A144</f>
+        <v>143</v>
+      </c>
+      <c r="B147">
+        <f>'Time Taken'!B144</f>
+        <v>8.1136000000000003E-3</v>
+      </c>
+      <c r="C147">
+        <f>'Time Taken'!C144</f>
+        <v>8.2413071428571421</v>
+      </c>
+      <c r="D147">
+        <f>'Time Taken'!D144</f>
+        <v>4.3820999999999999E-3</v>
+      </c>
+      <c r="E147">
+        <f>'Time Taken'!E144</f>
+        <v>4.401871428571428</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>1.87222804586361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A148">
+        <f>'Time Taken'!A145</f>
+        <v>144</v>
+      </c>
+      <c r="B148">
+        <f>'Time Taken'!B145</f>
+        <v>8.6505499999999999E-3</v>
+      </c>
+      <c r="C148">
+        <f>'Time Taken'!C145</f>
+        <v>8.3608714285714285</v>
+      </c>
+      <c r="D148">
+        <f>'Time Taken'!D145</f>
+        <v>4.3407999999999997E-3</v>
+      </c>
+      <c r="E148">
+        <f>'Time Taken'!E145</f>
+        <v>4.4238499999999998</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>1.8899536441270453</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A149">
+        <f>'Time Taken'!A146</f>
+        <v>145</v>
+      </c>
+      <c r="B149">
+        <f>'Time Taken'!B146</f>
+        <v>8.6009499999999996E-3</v>
+      </c>
+      <c r="C149">
+        <f>'Time Taken'!C146</f>
+        <v>8.5588857142857151</v>
+      </c>
+      <c r="D149">
+        <f>'Time Taken'!D146</f>
+        <v>4.42005E-3</v>
+      </c>
+      <c r="E149">
+        <f>'Time Taken'!E146</f>
+        <v>4.475535714285714</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>1.9123712245142246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A150">
+        <f>'Time Taken'!A147</f>
+        <v>146</v>
+      </c>
+      <c r="B150">
+        <f>'Time Taken'!B147</f>
+        <v>9.0624E-3</v>
+      </c>
+      <c r="C150">
+        <f>'Time Taken'!C147</f>
+        <v>8.7462142857142862</v>
+      </c>
+      <c r="D150">
+        <f>'Time Taken'!D147</f>
+        <v>4.6645999999999996E-3</v>
+      </c>
+      <c r="E150">
+        <f>'Time Taken'!E147</f>
+        <v>4.4901499999999999</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>1.9478668386834039</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A151">
+        <f>'Time Taken'!A148</f>
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <f>'Time Taken'!B148</f>
+        <v>8.7861999999999992E-3</v>
+      </c>
+      <c r="C151">
+        <f>'Time Taken'!C148</f>
+        <v>8.9119928571428577</v>
+      </c>
+      <c r="D151">
+        <f>'Time Taken'!D148</f>
+        <v>4.3924999999999997E-3</v>
+      </c>
+      <c r="E151">
+        <f>'Time Taken'!E148</f>
+        <v>4.4727285714285712</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>1.9925181496753344</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A152">
+        <f>'Time Taken'!A149</f>
+        <v>148</v>
+      </c>
+      <c r="B152">
+        <f>'Time Taken'!B149</f>
+        <v>8.9169000000000002E-3</v>
+      </c>
+      <c r="C152">
+        <f>'Time Taken'!C149</f>
+        <v>9.0421500000000012</v>
+      </c>
+      <c r="D152">
+        <f>'Time Taken'!D149</f>
+        <v>4.6178499999999997E-3</v>
+      </c>
+      <c r="E152">
+        <f>'Time Taken'!E149</f>
+        <v>4.4752857142857145</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>2.0204631787276153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A153">
+        <f>'Time Taken'!A150</f>
+        <v>149</v>
+      </c>
+      <c r="B153">
+        <f>'Time Taken'!B150</f>
+        <v>9.0928999999999992E-3</v>
+      </c>
+      <c r="C153">
+        <f>'Time Taken'!C150</f>
+        <v>9.2131857142857143</v>
+      </c>
+      <c r="D153">
+        <f>'Time Taken'!D150</f>
+        <v>4.6131499999999999E-3</v>
+      </c>
+      <c r="E153">
+        <f>'Time Taken'!E150</f>
+        <v>4.4726928571428566</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>2.0598744444462191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A154">
+        <f>'Time Taken'!A151</f>
+        <v>150</v>
+      </c>
+      <c r="B154">
+        <f>'Time Taken'!B151</f>
+        <v>9.2740500000000007E-3</v>
+      </c>
+      <c r="C154">
+        <f>'Time Taken'!C151</f>
+        <v>9.3388285714285697</v>
+      </c>
+      <c r="D154">
+        <f>'Time Taken'!D151</f>
+        <v>4.2601499999999999E-3</v>
+      </c>
+      <c r="E154">
+        <f>'Time Taken'!E151</f>
+        <v>4.4850285714285718</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>2.0822227601671588</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A155">
+        <f>'Time Taken'!A152</f>
+        <v>151</v>
+      </c>
+      <c r="B155">
+        <f>'Time Taken'!B152</f>
+        <v>9.5616499999999997E-3</v>
+      </c>
+      <c r="C155">
+        <f>'Time Taken'!C152</f>
+        <v>9.5235999999999983</v>
+      </c>
+      <c r="D155">
+        <f>'Time Taken'!D152</f>
+        <v>4.3587000000000001E-3</v>
+      </c>
+      <c r="E155">
+        <f>'Time Taken'!E152</f>
+        <v>4.4689500000000004</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>2.1310598686492348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A156">
+        <f>'Time Taken'!A153</f>
+        <v>152</v>
+      </c>
+      <c r="B156">
+        <f>'Time Taken'!B153</f>
+        <v>9.7982E-3</v>
+      </c>
+      <c r="C156">
+        <f>'Time Taken'!C153</f>
+        <v>9.7252214285714285</v>
+      </c>
+      <c r="D156">
+        <f>'Time Taken'!D153</f>
+        <v>4.4019000000000003E-3</v>
+      </c>
+      <c r="E156">
+        <f>'Time Taken'!E153</f>
+        <v>4.4700214285714281</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>2.1756543193305244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A157">
+        <f>'Time Taken'!A154</f>
+        <v>153</v>
+      </c>
+      <c r="B157">
+        <f>'Time Taken'!B154</f>
+        <v>9.9419E-3</v>
+      </c>
+      <c r="C157">
+        <f>'Time Taken'!C154</f>
+        <v>9.9083071428571419</v>
+      </c>
+      <c r="D157">
+        <f>'Time Taken'!D154</f>
+        <v>4.7509500000000003E-3</v>
+      </c>
+      <c r="E157">
+        <f>'Time Taken'!E154</f>
+        <v>4.5113785714285717</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>2.1962925491574476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A158">
+        <f>'Time Taken'!A155</f>
+        <v>154</v>
+      </c>
+      <c r="B158">
+        <f>'Time Taken'!B155</f>
+        <v>1.0079599999999999E-2</v>
+      </c>
+      <c r="C158">
+        <f>'Time Taken'!C155</f>
+        <v>10.132214285714284</v>
+      </c>
+      <c r="D158">
+        <f>'Time Taken'!D155</f>
+        <v>4.2799500000000002E-3</v>
+      </c>
+      <c r="E158">
+        <f>'Time Taken'!E155</f>
+        <v>4.5723000000000003</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>2.2159994501048232</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A159">
+        <f>'Time Taken'!A156</f>
+        <v>155</v>
+      </c>
+      <c r="B159">
+        <f>'Time Taken'!B156</f>
+        <v>1.0328250000000001E-2</v>
+      </c>
+      <c r="C159">
+        <f>'Time Taken'!C156</f>
+        <v>10.306857142857144</v>
+      </c>
+      <c r="D159">
+        <f>'Time Taken'!D156</f>
+        <v>4.6253500000000003E-3</v>
+      </c>
+      <c r="E159">
+        <f>'Time Taken'!E156</f>
+        <v>4.5925928571428569</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>2.2442348937652716</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A160">
+        <f>'Time Taken'!A157</f>
+        <v>156</v>
+      </c>
+      <c r="B160">
+        <f>'Time Taken'!B157</f>
+        <v>1.03745E-2</v>
+      </c>
+      <c r="C160">
+        <f>'Time Taken'!C157</f>
+        <v>10.518092857142857</v>
+      </c>
+      <c r="D160">
+        <f>'Time Taken'!D157</f>
+        <v>4.9026499999999997E-3</v>
+      </c>
+      <c r="E160">
+        <f>'Time Taken'!E157</f>
+        <v>4.6182214285714291</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>2.2775202574893547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A161">
+        <f>'Time Taken'!A158</f>
+        <v>157</v>
+      </c>
+      <c r="B161">
+        <f>'Time Taken'!B158</f>
+        <v>1.0841399999999999E-2</v>
+      </c>
+      <c r="C161">
+        <f>'Time Taken'!C158</f>
+        <v>10.679292857142858</v>
+      </c>
+      <c r="D161">
+        <f>'Time Taken'!D158</f>
+        <v>4.6866E-3</v>
+      </c>
+      <c r="E161">
+        <f>'Time Taken'!E158</f>
+        <v>4.6398500000000009</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>2.3016461431173112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A162">
+        <f>'Time Taken'!A159</f>
+        <v>158</v>
+      </c>
+      <c r="B162">
+        <f>'Time Taken'!B159</f>
+        <v>1.0784149999999999E-2</v>
+      </c>
+      <c r="C162">
+        <f>'Time Taken'!C159</f>
+        <v>10.96195</v>
+      </c>
+      <c r="D162">
+        <f>'Time Taken'!D159</f>
+        <v>4.5007500000000004E-3</v>
+      </c>
+      <c r="E162">
+        <f>'Time Taken'!E159</f>
+        <v>4.7032857142857143</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>2.330700422197248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A163">
+        <f>'Time Taken'!A160</f>
+        <v>159</v>
+      </c>
+      <c r="B163">
+        <f>'Time Taken'!B160</f>
+        <v>1.127685E-2</v>
+      </c>
+      <c r="C163">
+        <f>'Time Taken'!C160</f>
+        <v>11.173742857142857</v>
+      </c>
+      <c r="D163">
+        <f>'Time Taken'!D160</f>
+        <v>4.5813E-3</v>
+      </c>
+      <c r="E163">
+        <f>'Time Taken'!E160</f>
+        <v>4.6773999999999996</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>2.388879047578325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A164">
+        <f>'Time Taken'!A161</f>
+        <v>160</v>
+      </c>
+      <c r="B164">
+        <f>'Time Taken'!B161</f>
+        <v>1.10703E-2</v>
+      </c>
+      <c r="C164">
+        <f>'Time Taken'!C161</f>
+        <v>11.446785714285713</v>
+      </c>
+      <c r="D164">
+        <f>'Time Taken'!D161</f>
+        <v>4.9023499999999998E-3</v>
+      </c>
+      <c r="E164">
+        <f>'Time Taken'!E161</f>
+        <v>4.5922999999999998</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>2.492604079499535</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A165">
+        <f>'Time Taken'!A162</f>
+        <v>161</v>
+      </c>
+      <c r="B165">
+        <f>'Time Taken'!B162</f>
+        <v>1.20582E-2</v>
+      </c>
+      <c r="C165">
+        <f>'Time Taken'!C162</f>
+        <v>11.612771428571426</v>
+      </c>
+      <c r="D165">
+        <f>'Time Taken'!D162</f>
+        <v>4.7239999999999999E-3</v>
+      </c>
+      <c r="E165">
+        <f>'Time Taken'!E162</f>
+        <v>4.5655071428571432</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>2.5435884919685021</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A166">
+        <f>'Time Taken'!A163</f>
+        <v>162</v>
+      </c>
+      <c r="B166">
+        <f>'Time Taken'!B163</f>
+        <v>1.18108E-2</v>
+      </c>
+      <c r="C166">
+        <f>'Time Taken'!C163</f>
+        <v>11.873892857142856</v>
+      </c>
+      <c r="D166">
+        <f>'Time Taken'!D163</f>
+        <v>4.44415E-3</v>
+      </c>
+      <c r="E166">
+        <f>'Time Taken'!E163</f>
+        <v>4.5742071428571442</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>2.595836280760599</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A167">
+        <f>'Time Taken'!A164</f>
+        <v>163</v>
+      </c>
+      <c r="B167">
+        <f>'Time Taken'!B164</f>
+        <v>1.2285799999999999E-2</v>
+      </c>
+      <c r="C167">
+        <f>'Time Taken'!C164</f>
+        <v>12.062314285714287</v>
+      </c>
+      <c r="D167">
+        <f>'Time Taken'!D164</f>
+        <v>4.3069500000000004E-3</v>
+      </c>
+      <c r="E167">
+        <f>'Time Taken'!E164</f>
+        <v>4.5327357142857148</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>2.6611554359319425</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A168">
+        <f>'Time Taken'!A165</f>
+        <v>164</v>
+      </c>
+      <c r="B168">
+        <f>'Time Taken'!B165</f>
+        <v>1.20033E-2</v>
+      </c>
+      <c r="C168">
+        <f>'Time Taken'!C165</f>
+        <v>12.33222142857143</v>
+      </c>
+      <c r="D168">
+        <f>'Time Taken'!D165</f>
+        <v>4.4990500000000001E-3</v>
+      </c>
+      <c r="E168">
+        <f>'Time Taken'!E165</f>
+        <v>4.5087642857142853</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>2.7351665882479681</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A169">
+        <f>'Time Taken'!A166</f>
+        <v>165</v>
+      </c>
+      <c r="B169">
+        <f>'Time Taken'!B166</f>
+        <v>1.2612E-2</v>
+      </c>
+      <c r="C169">
+        <f>'Time Taken'!C166</f>
+        <v>12.436935714285713</v>
+      </c>
+      <c r="D169">
+        <f>'Time Taken'!D166</f>
+        <v>4.5616500000000004E-3</v>
+      </c>
+      <c r="E169">
+        <f>'Time Taken'!E166</f>
+        <v>4.447692857142858</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>2.7962667643095851</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A170">
+        <f>'Time Taken'!A167</f>
+        <v>166</v>
+      </c>
+      <c r="B170">
+        <f>'Time Taken'!B167</f>
+        <v>1.2595800000000001E-2</v>
+      </c>
+      <c r="C170">
+        <f>'Time Taken'!C167</f>
+        <v>12.658164285714285</v>
+      </c>
+      <c r="D170">
+        <f>'Time Taken'!D167</f>
+        <v>4.2909999999999997E-3</v>
+      </c>
+      <c r="E170">
+        <f>'Time Taken'!E167</f>
+        <v>4.4234071428571431</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>2.8616321936710065</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A171">
+        <f>'Time Taken'!A168</f>
+        <v>167</v>
+      </c>
+      <c r="B171">
+        <f>'Time Taken'!B168</f>
+        <v>1.295965E-2</v>
+      </c>
+      <c r="C171">
+        <f>'Time Taken'!C168</f>
+        <v>12.837150000000001</v>
+      </c>
+      <c r="D171">
+        <f>'Time Taken'!D168</f>
+        <v>4.7345499999999997E-3</v>
+      </c>
+      <c r="E171">
+        <f>'Time Taken'!E168</f>
+        <v>4.4352642857142861</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>2.8943371066629946</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A172">
+        <f>'Time Taken'!A169</f>
+        <v>168</v>
+      </c>
+      <c r="B172">
+        <f>'Time Taken'!B169</f>
+        <v>1.2791200000000001E-2</v>
+      </c>
+      <c r="C172">
+        <f>'Time Taken'!C169</f>
+        <v>13.158557142857147</v>
+      </c>
+      <c r="D172">
+        <f>'Time Taken'!D169</f>
+        <v>4.2965E-3</v>
+      </c>
+      <c r="E172">
+        <f>'Time Taken'!E169</f>
+        <v>4.4040428571428576</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>2.9878358521228878</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A173">
+        <f>'Time Taken'!A170</f>
+        <v>169</v>
+      </c>
+      <c r="B173">
+        <f>'Time Taken'!B170</f>
+        <v>1.33594E-2</v>
+      </c>
+      <c r="C173">
+        <f>'Time Taken'!C170</f>
+        <v>13.354757142857142</v>
+      </c>
+      <c r="D173">
+        <f>'Time Taken'!D170</f>
+        <v>4.27415E-3</v>
+      </c>
+      <c r="E173">
+        <f>'Time Taken'!E170</f>
+        <v>4.3309214285714281</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>3.0835833351200423</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A174">
+        <f>'Time Taken'!A171</f>
+        <v>170</v>
+      </c>
+      <c r="B174">
+        <f>'Time Taken'!B171</f>
+        <v>1.3538700000000001E-2</v>
+      </c>
+      <c r="C174">
+        <f>'Time Taken'!C171</f>
+        <v>13.626242857142856</v>
+      </c>
+      <c r="D174">
+        <f>'Time Taken'!D171</f>
+        <v>4.3899500000000001E-3</v>
+      </c>
+      <c r="E174">
+        <f>'Time Taken'!E171</f>
+        <v>4.3260928571428572</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>3.1497804848650959</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A175">
+        <f>'Time Taken'!A172</f>
+        <v>171</v>
+      </c>
+      <c r="B175">
+        <f>'Time Taken'!B172</f>
+        <v>1.4253149999999999E-2</v>
+      </c>
+      <c r="C175">
+        <f>'Time Taken'!C172</f>
+        <v>13.950685714285715</v>
+      </c>
+      <c r="D175">
+        <f>'Time Taken'!D172</f>
+        <v>4.2804999999999996E-3</v>
+      </c>
+      <c r="E175">
+        <f>'Time Taken'!E172</f>
+        <v>4.251949999999999</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>3.2810088816391816</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A176">
+        <f>'Time Taken'!A173</f>
+        <v>172</v>
+      </c>
+      <c r="B176">
+        <f>'Time Taken'!B173</f>
+        <v>1.39854E-2</v>
+      </c>
+      <c r="C176">
+        <f>'Time Taken'!C173</f>
+        <v>14.239064285714285</v>
+      </c>
+      <c r="D176">
+        <f>'Time Taken'!D173</f>
+        <v>4.0498000000000001E-3</v>
+      </c>
+      <c r="E176">
+        <f>'Time Taken'!E173</f>
+        <v>4.2387142857142859</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>3.3592885308887461</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A177">
+        <f>'Time Taken'!A174</f>
+        <v>173</v>
+      </c>
+      <c r="B177">
+        <f>'Time Taken'!B174</f>
+        <v>1.4496200000000001E-2</v>
+      </c>
+      <c r="C177">
+        <f>'Time Taken'!C174</f>
+        <v>14.47315</v>
+      </c>
+      <c r="D177">
+        <f>'Time Taken'!D174</f>
+        <v>4.2572E-3</v>
+      </c>
+      <c r="E177">
+        <f>'Time Taken'!E174</f>
+        <v>4.2461142857142864</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>3.4085634597009697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A178">
+        <f>'Time Taken'!A175</f>
+        <v>174</v>
+      </c>
+      <c r="B178">
+        <f>'Time Taken'!B175</f>
+        <v>1.5230749999999999E-2</v>
+      </c>
+      <c r="C178">
+        <f>'Time Taken'!C175</f>
+        <v>14.797728571428571</v>
+      </c>
+      <c r="D178">
+        <f>'Time Taken'!D175</f>
+        <v>4.2155500000000002E-3</v>
+      </c>
+      <c r="E178">
+        <f>'Time Taken'!E175</f>
+        <v>4.2519428571428577</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>3.480227526240105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A179">
+        <f>'Time Taken'!A176</f>
+        <v>175</v>
+      </c>
+      <c r="B179">
+        <f>'Time Taken'!B176</f>
+        <v>1.4809849999999999E-2</v>
+      </c>
+      <c r="C179">
+        <f>'Time Taken'!C176</f>
+        <v>14.972892857142858</v>
+      </c>
+      <c r="D179">
+        <f>'Time Taken'!D176</f>
+        <v>4.2038500000000003E-3</v>
+      </c>
+      <c r="E179">
+        <f>'Time Taken'!E176</f>
+        <v>4.2605214285714297</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>3.5143334233066703</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A180">
+        <f>'Time Taken'!A177</f>
+        <v>176</v>
+      </c>
+      <c r="B180">
+        <f>'Time Taken'!B177</f>
+        <v>1.4997999999999999E-2</v>
+      </c>
+      <c r="C180">
+        <f>'Time Taken'!C177</f>
+        <v>15.272985714285715</v>
+      </c>
+      <c r="D180">
+        <f>'Time Taken'!D177</f>
+        <v>4.3259500000000003E-3</v>
+      </c>
+      <c r="E180">
+        <f>'Time Taken'!E177</f>
+        <v>4.3049499999999998</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>3.5477730784993358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A181">
+        <f>'Time Taken'!A178</f>
+        <v>177</v>
+      </c>
+      <c r="B181">
+        <f>'Time Taken'!B178</f>
+        <v>1.5810749999999998E-2</v>
+      </c>
+      <c r="C181">
+        <f>'Time Taken'!C178</f>
+        <v>15.499528571428572</v>
+      </c>
+      <c r="D181">
+        <f>'Time Taken'!D178</f>
+        <v>4.4307499999999998E-3</v>
+      </c>
+      <c r="E181">
+        <f>'Time Taken'!E178</f>
+        <v>4.2615571428571428</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>3.6370575477105955</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A182">
+        <f>'Time Taken'!A179</f>
+        <v>178</v>
+      </c>
+      <c r="B182">
+        <f>'Time Taken'!B179</f>
+        <v>1.54793E-2</v>
+      </c>
+      <c r="C182">
+        <f>'Time Taken'!C179</f>
+        <v>15.6296</v>
+      </c>
+      <c r="D182">
+        <f>'Time Taken'!D179</f>
+        <v>4.3405500000000003E-3</v>
+      </c>
+      <c r="E182">
+        <f>'Time Taken'!E179</f>
+        <v>4.2368857142857141</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>3.6889359435164644</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A183">
+        <f>'Time Taken'!A180</f>
+        <v>179</v>
+      </c>
+      <c r="B183">
+        <f>'Time Taken'!B180</f>
+        <v>1.6086050000000001E-2</v>
+      </c>
+      <c r="C183">
+        <f>'Time Taken'!C180</f>
+        <v>15.96272857142857</v>
+      </c>
+      <c r="D183">
+        <f>'Time Taken'!D180</f>
+        <v>4.3607999999999997E-3</v>
+      </c>
+      <c r="E183">
+        <f>'Time Taken'!E180</f>
+        <v>4.3046285714285712</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>3.7082708313974324</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A184">
+        <f>'Time Taken'!A181</f>
+        <v>180</v>
+      </c>
+      <c r="B184">
+        <f>'Time Taken'!B181</f>
+        <v>1.6081999999999999E-2</v>
+      </c>
+      <c r="C184">
+        <f>'Time Taken'!C181</f>
+        <v>16.351435714285714</v>
+      </c>
+      <c r="D184">
+        <f>'Time Taken'!D181</f>
+        <v>3.9534499999999998E-3</v>
+      </c>
+      <c r="E184">
+        <f>'Time Taken'!E181</f>
+        <v>4.3231071428571424</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>3.782334134674961</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A185">
+        <f>'Time Taken'!A182</f>
+        <v>181</v>
+      </c>
+      <c r="B185">
+        <f>'Time Taken'!B182</f>
+        <v>1.6141249999999999E-2</v>
+      </c>
+      <c r="C185">
+        <f>'Time Taken'!C182</f>
+        <v>16.481757142857141</v>
+      </c>
+      <c r="D185">
+        <f>'Time Taken'!D182</f>
+        <v>4.0428499999999997E-3</v>
+      </c>
+      <c r="E185">
+        <f>'Time Taken'!E182</f>
+        <v>4.3042071428571429</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>3.829220247963371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A186">
+        <f>'Time Taken'!A183</f>
+        <v>182</v>
+      </c>
+      <c r="B186">
+        <f>'Time Taken'!B183</f>
+        <v>1.7141750000000001E-2</v>
+      </c>
+      <c r="C186">
+        <f>'Time Taken'!C183</f>
+        <v>16.723228571428571</v>
+      </c>
+      <c r="D186">
+        <f>'Time Taken'!D183</f>
+        <v>4.6780499999999996E-3</v>
+      </c>
+      <c r="E186">
+        <f>'Time Taken'!E183</f>
+        <v>4.3375285714285701</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>3.8554739861738261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A187">
+        <f>'Time Taken'!A184</f>
+        <v>183</v>
+      </c>
+      <c r="B187">
+        <f>'Time Taken'!B184</f>
+        <v>1.7718950000000001E-2</v>
+      </c>
+      <c r="C187">
+        <f>'Time Taken'!C184</f>
+        <v>16.903892857142857</v>
+      </c>
+      <c r="D187">
+        <f>'Time Taken'!D184</f>
+        <v>4.4552999999999997E-3</v>
+      </c>
+      <c r="E187">
+        <f>'Time Taken'!E184</f>
+        <v>4.3227928571428569</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>3.9104101019347612</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A188">
+        <f>'Time Taken'!A185</f>
+        <v>184</v>
+      </c>
+      <c r="B188">
+        <f>'Time Taken'!B185</f>
+        <v>1.6722999999999998E-2</v>
+      </c>
+      <c r="C188">
+        <f>'Time Taken'!C185</f>
+        <v>17.282121428571429</v>
+      </c>
+      <c r="D188">
+        <f>'Time Taken'!D185</f>
+        <v>4.2984499999999997E-3</v>
+      </c>
+      <c r="E188">
+        <f>'Time Taken'!E185</f>
+        <v>4.3581285714285709</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>3.9654914134179489</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A189">
+        <f>'Time Taken'!A186</f>
+        <v>185</v>
+      </c>
+      <c r="B189">
+        <f>'Time Taken'!B186</f>
+        <v>1.71696E-2</v>
+      </c>
+      <c r="C189">
+        <f>'Time Taken'!C186</f>
+        <v>17.663985714285712</v>
+      </c>
+      <c r="D189">
+        <f>'Time Taken'!D186</f>
+        <v>4.5738000000000003E-3</v>
+      </c>
+      <c r="E189">
+        <f>'Time Taken'!E186</f>
+        <v>4.3638214285714279</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>4.0478250550385884</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A190">
+        <f>'Time Taken'!A187</f>
+        <v>186</v>
+      </c>
+      <c r="B190">
+        <f>'Time Taken'!B187</f>
+        <v>1.73507E-2</v>
+      </c>
+      <c r="C190">
+        <f>'Time Taken'!C187</f>
+        <v>17.917735714285712</v>
+      </c>
+      <c r="D190">
+        <f>'Time Taken'!D187</f>
+        <v>4.25765E-3</v>
+      </c>
+      <c r="E190">
+        <f>'Time Taken'!E187</f>
+        <v>4.3243928571428576</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>4.1434107182676332</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A191">
+        <f>'Time Taken'!A188</f>
+        <v>187</v>
+      </c>
+      <c r="B191">
+        <f>'Time Taken'!B188</f>
+        <v>1.8729599999999999E-2</v>
+      </c>
+      <c r="C191">
+        <f>'Time Taken'!C188</f>
+        <v>18.0915</v>
+      </c>
+      <c r="D191">
+        <f>'Time Taken'!D188</f>
+        <v>4.2008000000000002E-3</v>
+      </c>
+      <c r="E191">
+        <f>'Time Taken'!E188</f>
+        <v>4.4062714285714293</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>4.1058523727544172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A192">
+        <f>'Time Taken'!A189</f>
+        <v>188</v>
+      </c>
+      <c r="B192">
+        <f>'Time Taken'!B189</f>
+        <v>1.8814299999999999E-2</v>
+      </c>
+      <c r="C192">
+        <f>'Time Taken'!C189</f>
+        <v>18.51107142857143</v>
+      </c>
+      <c r="D192">
+        <f>'Time Taken'!D189</f>
+        <v>4.0826999999999999E-3</v>
+      </c>
+      <c r="E192">
+        <f>'Time Taken'!E189</f>
+        <v>4.4316214285714297</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>4.1770425851872979</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A193">
+        <f>'Time Taken'!A190</f>
+        <v>189</v>
+      </c>
+      <c r="B193">
+        <f>'Time Taken'!B190</f>
+        <v>1.8918000000000001E-2</v>
+      </c>
+      <c r="C193">
+        <f>'Time Taken'!C190</f>
+        <v>18.961071428571429</v>
+      </c>
+      <c r="D193">
+        <f>'Time Taken'!D190</f>
+        <v>4.4020500000000002E-3</v>
+      </c>
+      <c r="E193">
+        <f>'Time Taken'!E190</f>
+        <v>4.4393714285714285</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>4.2711162455431273</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A194">
+        <f>'Time Taken'!A191</f>
+        <v>190</v>
+      </c>
+      <c r="B194">
+        <f>'Time Taken'!B191</f>
+        <v>1.8935299999999999E-2</v>
+      </c>
+      <c r="C194">
+        <f>'Time Taken'!C191</f>
+        <v>19.380671428571429</v>
+      </c>
+      <c r="D194">
+        <f>'Time Taken'!D191</f>
+        <v>5.0284500000000003E-3</v>
+      </c>
+      <c r="E194">
+        <f>'Time Taken'!E191</f>
+        <v>4.4788500000000004</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>4.327153494439739</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A195">
+        <f>'Time Taken'!A192</f>
+        <v>191</v>
+      </c>
+      <c r="B195">
+        <f>'Time Taken'!B192</f>
+        <v>1.966E-2</v>
+      </c>
+      <c r="C195">
+        <f>'Time Taken'!C192</f>
+        <v>19.720299999999998</v>
+      </c>
+      <c r="D195">
+        <f>'Time Taken'!D192</f>
+        <v>4.4758999999999997E-3</v>
+      </c>
+      <c r="E195">
+        <f>'Time Taken'!E192</f>
+        <v>4.5012857142857143</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="2"/>
+        <v>4.3810371639848924</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A196">
+        <f>'Time Taken'!A193</f>
+        <v>192</v>
+      </c>
+      <c r="B196">
+        <f>'Time Taken'!B193</f>
+        <v>2.03196E-2</v>
+      </c>
+      <c r="C196">
+        <f>'Time Taken'!C193</f>
+        <v>20.0641</v>
+      </c>
+      <c r="D196">
+        <f>'Time Taken'!D193</f>
+        <v>4.6280499999999999E-3</v>
+      </c>
+      <c r="E196">
+        <f>'Time Taken'!E193</f>
+        <v>4.6053642857142858</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="2"/>
+        <v>4.3566803308564079</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A197">
+        <f>'Time Taken'!A194</f>
+        <v>193</v>
+      </c>
+      <c r="B197">
+        <f>'Time Taken'!B194</f>
+        <v>2.0287900000000001E-2</v>
+      </c>
+      <c r="C197">
+        <f>'Time Taken'!C194</f>
+        <v>20.34937142857143</v>
+      </c>
+      <c r="D197">
+        <f>'Time Taken'!D194</f>
+        <v>4.5339999999999998E-3</v>
+      </c>
+      <c r="E197">
+        <f>'Time Taken'!E194</f>
+        <v>4.7364500000000005</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="2"/>
+        <v>4.2963340536839674</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A198">
+        <f>'Time Taken'!A195</f>
+        <v>194</v>
+      </c>
+      <c r="B198">
+        <f>'Time Taken'!B195</f>
+        <v>2.1107000000000001E-2</v>
+      </c>
+      <c r="C198">
+        <f>'Time Taken'!C195</f>
+        <v>20.700457142857143</v>
+      </c>
+      <c r="D198">
+        <f>'Time Taken'!D195</f>
+        <v>4.3578499999999999E-3</v>
+      </c>
+      <c r="E198">
+        <f>'Time Taken'!E195</f>
+        <v>4.6568999999999994</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="2"/>
+        <v>4.4451152360705937</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A199">
+        <f>'Time Taken'!A196</f>
+        <v>195</v>
+      </c>
+      <c r="B199">
+        <f>'Time Taken'!B196</f>
+        <v>2.1220900000000001E-2</v>
+      </c>
+      <c r="C199">
+        <f>'Time Taken'!C196</f>
+        <v>20.998814285714285</v>
+      </c>
+      <c r="D199">
+        <f>'Time Taken'!D196</f>
+        <v>4.8112500000000004E-3</v>
+      </c>
+      <c r="E199">
+        <f>'Time Taken'!E196</f>
+        <v>4.6948285714285714</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="2"/>
+        <v>4.4727542158849554</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A200">
+        <f>'Time Taken'!A197</f>
+        <v>196</v>
+      </c>
+      <c r="B200">
+        <f>'Time Taken'!B197</f>
+        <v>2.09149E-2</v>
+      </c>
+      <c r="C200">
+        <f>'Time Taken'!C197</f>
+        <v>21.258571428571429</v>
+      </c>
+      <c r="D200">
+        <f>'Time Taken'!D197</f>
+        <v>5.3196500000000004E-3</v>
+      </c>
+      <c r="E200">
+        <f>'Time Taken'!E197</f>
+        <v>4.7988499999999998</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="2"/>
+        <v>4.4299303851071468</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A201">
+        <f>'Time Taken'!A198</f>
+        <v>197</v>
+      </c>
+      <c r="B201">
+        <f>'Time Taken'!B198</f>
+        <v>2.1392899999999999E-2</v>
+      </c>
+      <c r="C201">
+        <f>'Time Taken'!C198</f>
+        <v>21.490400000000001</v>
+      </c>
+      <c r="D201">
+        <f>'Time Taken'!D198</f>
+        <v>4.4716000000000001E-3</v>
+      </c>
+      <c r="E201">
+        <f>'Time Taken'!E198</f>
+        <v>4.9203642857142862</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="2"/>
+        <v>4.3676440913927683</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A202">
+        <f>'Time Taken'!A199</f>
+        <v>198</v>
+      </c>
+      <c r="B202">
+        <f>'Time Taken'!B199</f>
+        <v>2.17485E-2</v>
+      </c>
+      <c r="C202">
+        <f>'Time Taken'!C199</f>
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <f>'Time Taken'!D199</f>
+        <v>4.7413999999999998E-3</v>
+      </c>
+      <c r="E202">
+        <f>'Time Taken'!E199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A203">
+        <f>'Time Taken'!A200</f>
+        <v>199</v>
+      </c>
+      <c r="B203">
+        <f>'Time Taken'!B200</f>
+        <v>2.2137899999999999E-2</v>
+      </c>
+      <c r="C203">
+        <f>'Time Taken'!C200</f>
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <f>'Time Taken'!D200</f>
+        <v>5.3562000000000002E-3</v>
+      </c>
+      <c r="E203">
+        <f>'Time Taken'!E200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A204">
+        <f>'Time Taken'!A201</f>
+        <v>200</v>
+      </c>
+      <c r="B204">
+        <f>'Time Taken'!B201</f>
+        <v>2.1910700000000002E-2</v>
+      </c>
+      <c r="C204">
+        <f>'Time Taken'!C201</f>
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <f>'Time Taken'!D201</f>
+        <v>5.3845999999999998E-3</v>
+      </c>
+      <c r="E204">
+        <f>'Time Taken'!E201</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/prac_3_2/graphs.xlsx
+++ b/prac_3_2/graphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62ce1d03d1827cd4/Desktop/FRSKIA001_CLRCAM007_ES3/FRSKIA001_CLRCAM007_ES3/prac_3_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kianf\OneDrive\Desktop\FRSKIA001_CLRCAM007_ES3\FRSKIA001_CLRCAM007_ES3\prac_3_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{0450FC45-E972-CD47-9B1E-DA4FBC376D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE33D9C8-5147-4608-B08B-2A792C0C9799}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0C026-D5CF-48BA-A193-AA1147A136A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{495A3C41-0290-A44E-B57D-E58F10224CF2}"/>
   </bookViews>
@@ -2709,20 +2709,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of the matrix</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2785,6 +2831,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7397260273972601E-2"/>
+              <c:y val="0.42768099222184619"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2835,7 +2948,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3664,20 +3777,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of matrices being multiplied together</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3740,6 +3894,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.8997263422183551E-2"/>
+              <c:y val="0.42782185509905268"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3790,7 +4007,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4619,20 +4836,96 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of matrices being multiplied together</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4695,6 +4988,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4745,7 +5100,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5574,20 +5929,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of matrices being multiplied together</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5650,6 +6053,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5700,7 +6165,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6529,20 +6994,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of matrices being multiplied together</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6605,6 +7118,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6655,7 +7230,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7484,20 +8059,76 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of matrices being multiplied together</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.25610720297798523"/>
+              <c:y val="0.87744874372803638"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7560,6 +8191,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7610,7 +8303,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13166,15 +13859,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>423334</xdr:colOff>
+      <xdr:colOff>434324</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>43473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>49091</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>145073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13244,13 +13937,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>173566</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:rowOff>138944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>622299</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:rowOff>37344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13640,8 +14333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9638D0BC-FA10-DC45-8B84-163D5FF41A31}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
